--- a/Docs/OPRIQ.xlsx
+++ b/Docs/OPRIQ.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="434">
   <si>
     <t>Ctrl</t>
   </si>
@@ -2861,6 +2861,15 @@
   </si>
   <si>
     <t>which will block most of 1L-features</t>
+  </si>
+  <si>
+    <t>chords too</t>
+  </si>
+  <si>
+    <t>work with</t>
+  </si>
+  <si>
+    <t>Alt/Ctrl/Shift</t>
   </si>
 </sst>
 </file>
@@ -4390,7 +4399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="852">
+  <cellXfs count="853">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6937,6 +6946,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30866,7 +30878,7 @@
   <dimension ref="B1:DT52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ29" sqref="AJ29"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33423,7 +33435,9 @@
       <c r="Q24" s="720"/>
       <c r="R24" s="720"/>
       <c r="S24" s="831"/>
-      <c r="T24" s="831"/>
+      <c r="T24" s="852" t="s">
+        <v>433</v>
+      </c>
       <c r="U24" s="831"/>
       <c r="V24" s="831"/>
       <c r="W24" s="831"/>
@@ -33537,7 +33551,9 @@
       <c r="Q25" s="720"/>
       <c r="R25" s="720"/>
       <c r="S25" s="831"/>
-      <c r="T25" s="831"/>
+      <c r="T25" s="852" t="s">
+        <v>432</v>
+      </c>
       <c r="U25" s="831"/>
       <c r="V25" s="831"/>
       <c r="W25" s="831"/>
@@ -33637,7 +33653,9 @@
       <c r="Q26" s="720"/>
       <c r="R26" s="720"/>
       <c r="S26" s="831"/>
-      <c r="T26" s="831"/>
+      <c r="T26" s="852" t="s">
+        <v>431</v>
+      </c>
       <c r="U26" s="831"/>
       <c r="V26" s="831"/>
       <c r="W26" s="831"/>

--- a/Docs/OPRIQ.xlsx
+++ b/Docs/OPRIQ.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="430">
   <si>
     <t>Ctrl</t>
   </si>
@@ -1079,9 +1079,6 @@
     <t>LShift</t>
   </si>
   <si>
-    <t>7*</t>
-  </si>
-  <si>
     <t>°</t>
   </si>
   <si>
@@ -1155,34 +1152,6 @@
   </si>
   <si>
     <t>[↓]</t>
-  </si>
-  <si>
-    <r>
-      <t>__</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>__
-[→N]</t>
-    </r>
   </si>
   <si>
     <t>or [↓]</t>
@@ -1570,126 +1539,10 @@
     <t>Win*</t>
   </si>
   <si>
-    <t>* original QWERTY keys are shown in grey; «N.Dot» is Numpad Dot (needed for multilang layouts)</t>
-  </si>
-  <si>
     <t>NAVIGATION</t>
   </si>
   <si>
-    <t>* «N.Dot» is Numpad Dot (needed for multilang layouts)</t>
-  </si>
-  <si>
     <t>* All other modifiers (Shift/Ctrl/Win) can be added as usual</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* Modifiers with star (like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="13"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Shft*</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) work only with keys also marked with stars (like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="13"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*Del</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="13"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*←</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is motion (left), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="13"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is ← symbol itself</t>
-    </r>
   </si>
   <si>
     <t>* Pressing and holding Alt before TAB will call normal Alt+TAB functionality instead of opening layer</t>
@@ -1948,22 +1801,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">__o__
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[→Cnfg]</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>__</t>
     </r>
     <r>
@@ -2851,9 +2688,6 @@
     <t>or[↓]</t>
   </si>
   <si>
-    <t>OPRIQ APP CONTROLS/CONFIGS</t>
-  </si>
-  <si>
     <t>CHORDS</t>
   </si>
   <si>
@@ -2876,13 +2710,19 @@
   </si>
   <si>
     <t>1L2H</t>
+  </si>
+  <si>
+    <t>CNFG LAYER (OPRIQ app control/configuration)</t>
+  </si>
+  <si>
+    <t>* [N.Dot] is Numpad Dot (needed for multilang layouts)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="65" x14ac:knownFonts="1">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3170,15 +3010,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3620,7 +3451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -4354,17 +4185,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -4415,7 +4235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="855">
+  <cellXfs count="810">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4787,33 +4607,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4822,7 +4642,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6022,127 +5842,127 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="9" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6193,10 +6013,10 @@
     <xf numFmtId="0" fontId="35" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6208,22 +6028,22 @@
     <xf numFmtId="0" fontId="17" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6340,7 +6160,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6352,13 +6172,13 @@
     <xf numFmtId="9" fontId="34" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6412,16 +6232,16 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6469,13 +6289,13 @@
     <xf numFmtId="0" fontId="26" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="56" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="55" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="56" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="55" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6490,25 +6310,25 @@
     <xf numFmtId="0" fontId="16" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6547,37 +6367,37 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6586,58 +6406,58 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6652,38 +6472,20 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6799,27 +6601,9 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6850,108 +6634,6 @@
     <xf numFmtId="0" fontId="34" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="6" borderId="58" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6967,11 +6649,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="54" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -29745,7 +29430,7 @@
   <sheetData>
     <row r="2" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="537" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C2" s="537"/>
       <c r="D2" s="537"/>
@@ -29776,7 +29461,7 @@
       <c r="AC2" s="537"/>
       <c r="AD2" s="537"/>
       <c r="AG2" s="537" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AH2" s="537"/>
       <c r="AI2" s="537"/>
@@ -30015,7 +29700,7 @@
     </row>
     <row r="7" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="577" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C7" s="578"/>
       <c r="D7" s="579" t="s">
@@ -30163,7 +29848,7 @@
     </row>
     <row r="9" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="541" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C9" s="542"/>
       <c r="D9" s="542"/>
@@ -30321,15 +30006,15 @@
       </c>
       <c r="G11" s="558"/>
       <c r="H11" s="561" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I11" s="562"/>
       <c r="J11" s="565" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K11" s="562"/>
       <c r="L11" s="565" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M11" s="566"/>
       <c r="N11" s="568" t="s">
@@ -30366,7 +30051,7 @@
       <c r="AC11" s="549"/>
       <c r="AD11" s="549"/>
       <c r="AG11" s="584" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AH11" s="585"/>
       <c r="AI11" s="585"/>
@@ -30603,7 +30288,7 @@
     </row>
     <row r="15" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="538" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C15" s="539"/>
       <c r="D15" s="539"/>
@@ -30618,7 +30303,7 @@
       </c>
       <c r="J15" s="540"/>
       <c r="K15" s="541" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="L15" s="542"/>
       <c r="M15" s="542"/>
@@ -30630,7 +30315,7 @@
       <c r="S15" s="542"/>
       <c r="T15" s="542"/>
       <c r="U15" s="541" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="V15" s="542"/>
       <c r="W15" s="543" t="s">
@@ -30646,7 +30331,7 @@
       <c r="AC15" s="136"/>
       <c r="AD15" s="136"/>
       <c r="AG15" s="584" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AH15" s="585"/>
       <c r="AI15" s="585"/>
@@ -30667,7 +30352,7 @@
       <c r="AX15" s="267"/>
       <c r="AY15" s="267"/>
       <c r="AZ15" s="584" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="BA15" s="585"/>
       <c r="BB15" s="197"/>
@@ -30900,7 +30585,7 @@
   <dimension ref="B1:DT52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BY40" sqref="BY40"/>
+      <selection activeCell="CZ43" sqref="CZ43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30915,7 +30600,7 @@
     <row r="1" spans="2:124" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:124" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="669" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C2" s="670"/>
       <c r="D2" s="670"/>
@@ -30978,7 +30663,7 @@
       <c r="BI2" s="671"/>
       <c r="BK2" s="133"/>
       <c r="BM2" s="669" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="BN2" s="670"/>
       <c r="BO2" s="670"/>
@@ -31045,7 +30730,7 @@
     </row>
     <row r="4" spans="2:124" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="537" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C4" s="537"/>
       <c r="D4" s="537"/>
@@ -31076,7 +30761,7 @@
       <c r="AC4" s="537"/>
       <c r="AD4" s="537"/>
       <c r="AG4" s="537" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AH4" s="537"/>
       <c r="AI4" s="537"/>
@@ -31108,7 +30793,7 @@
       <c r="BI4" s="537"/>
       <c r="BK4" s="133"/>
       <c r="BM4" s="537" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BN4" s="537"/>
       <c r="BO4" s="537"/>
@@ -31139,7 +30824,7 @@
       <c r="CN4" s="537"/>
       <c r="CO4" s="537"/>
       <c r="CR4" s="537" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="CS4" s="537"/>
       <c r="CT4" s="537"/>
@@ -31267,35 +30952,61 @@
       <c r="BH6" s="543"/>
       <c r="BI6" s="543"/>
       <c r="BK6" s="133"/>
-      <c r="BM6" s="295"/>
-      <c r="BN6" s="295"/>
-      <c r="BO6" s="104"/>
-      <c r="BP6" s="197"/>
-      <c r="BQ6" s="197"/>
-      <c r="BR6" s="197"/>
-      <c r="BS6" s="197"/>
-      <c r="BT6" s="197"/>
-      <c r="BU6" s="197"/>
-      <c r="BV6" s="197"/>
-      <c r="BW6" s="197"/>
-      <c r="BX6" s="104"/>
-      <c r="BY6" s="197"/>
-      <c r="BZ6" s="197"/>
-      <c r="CA6" s="197"/>
-      <c r="CB6" s="197"/>
-      <c r="CC6" s="197"/>
-      <c r="CD6" s="197"/>
-      <c r="CE6" s="197"/>
-      <c r="CF6" s="197"/>
-      <c r="CG6" s="104"/>
-      <c r="CH6" s="197"/>
-      <c r="CI6" s="197"/>
-      <c r="CJ6" s="197"/>
-      <c r="CK6" s="197"/>
-      <c r="CL6" s="197"/>
-      <c r="CM6" s="197"/>
-      <c r="CN6" s="197"/>
-      <c r="CO6" s="197"/>
+      <c r="BM6" s="575" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN6" s="575"/>
+      <c r="BO6" s="135"/>
+      <c r="BP6" s="583" t="s">
+        <v>63</v>
+      </c>
+      <c r="BQ6" s="583"/>
+      <c r="BR6" s="583" t="s">
+        <v>62</v>
+      </c>
+      <c r="BS6" s="583"/>
+      <c r="BT6" s="583" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU6" s="583"/>
+      <c r="BV6" s="583" t="s">
+        <v>60</v>
+      </c>
+      <c r="BW6" s="583"/>
+      <c r="BX6" s="136"/>
+      <c r="BY6" s="543" t="s">
+        <v>59</v>
+      </c>
+      <c r="BZ6" s="543"/>
+      <c r="CA6" s="543" t="s">
+        <v>58</v>
+      </c>
+      <c r="CB6" s="543"/>
+      <c r="CC6" s="543" t="s">
+        <v>57</v>
+      </c>
+      <c r="CD6" s="543"/>
+      <c r="CE6" s="543" t="s">
+        <v>56</v>
+      </c>
+      <c r="CF6" s="543"/>
+      <c r="CG6" s="135"/>
+      <c r="CH6" s="543" t="s">
+        <v>55</v>
+      </c>
+      <c r="CI6" s="543"/>
+      <c r="CJ6" s="543" t="s">
+        <v>54</v>
+      </c>
+      <c r="CK6" s="543"/>
+      <c r="CL6" s="543" t="s">
+        <v>52</v>
+      </c>
+      <c r="CM6" s="543"/>
+      <c r="CN6" s="543" t="s">
+        <v>51</v>
+      </c>
+      <c r="CO6" s="543"/>
       <c r="CR6" s="295"/>
       <c r="CS6" s="295"/>
       <c r="CT6" s="104"/>
@@ -31394,35 +31105,35 @@
       <c r="BH7" s="543"/>
       <c r="BI7" s="543"/>
       <c r="BK7" s="133"/>
-      <c r="BM7" s="295"/>
-      <c r="BN7" s="295"/>
-      <c r="BO7" s="104"/>
-      <c r="BP7" s="197"/>
-      <c r="BQ7" s="197"/>
-      <c r="BR7" s="197"/>
-      <c r="BS7" s="197"/>
-      <c r="BT7" s="197"/>
-      <c r="BU7" s="197"/>
-      <c r="BV7" s="197"/>
-      <c r="BW7" s="197"/>
-      <c r="BX7" s="104"/>
-      <c r="BY7" s="197"/>
-      <c r="BZ7" s="197"/>
-      <c r="CA7" s="197"/>
-      <c r="CB7" s="197"/>
-      <c r="CC7" s="197"/>
-      <c r="CD7" s="197"/>
-      <c r="CE7" s="197"/>
-      <c r="CF7" s="197"/>
-      <c r="CG7" s="104"/>
-      <c r="CH7" s="197"/>
-      <c r="CI7" s="197"/>
-      <c r="CJ7" s="197"/>
-      <c r="CK7" s="197"/>
-      <c r="CL7" s="197"/>
-      <c r="CM7" s="197"/>
-      <c r="CN7" s="197"/>
-      <c r="CO7" s="197"/>
+      <c r="BM7" s="575"/>
+      <c r="BN7" s="575"/>
+      <c r="BO7" s="135"/>
+      <c r="BP7" s="583"/>
+      <c r="BQ7" s="583"/>
+      <c r="BR7" s="583"/>
+      <c r="BS7" s="583"/>
+      <c r="BT7" s="583"/>
+      <c r="BU7" s="583"/>
+      <c r="BV7" s="583"/>
+      <c r="BW7" s="583"/>
+      <c r="BX7" s="136"/>
+      <c r="BY7" s="543"/>
+      <c r="BZ7" s="543"/>
+      <c r="CA7" s="543"/>
+      <c r="CB7" s="543"/>
+      <c r="CC7" s="543"/>
+      <c r="CD7" s="543"/>
+      <c r="CE7" s="543"/>
+      <c r="CF7" s="543"/>
+      <c r="CG7" s="135"/>
+      <c r="CH7" s="543"/>
+      <c r="CI7" s="543"/>
+      <c r="CJ7" s="543"/>
+      <c r="CK7" s="543"/>
+      <c r="CL7" s="543"/>
+      <c r="CM7" s="543"/>
+      <c r="CN7" s="543"/>
+      <c r="CO7" s="543"/>
       <c r="CR7" s="295"/>
       <c r="CS7" s="295"/>
       <c r="CT7" s="104"/>
@@ -31513,35 +31224,35 @@
       <c r="BH8" s="136"/>
       <c r="BI8" s="136"/>
       <c r="BK8" s="133"/>
-      <c r="BM8" s="104"/>
-      <c r="BN8" s="104"/>
-      <c r="BO8" s="104"/>
-      <c r="BP8" s="104"/>
-      <c r="BQ8" s="104"/>
-      <c r="BR8" s="104"/>
-      <c r="BS8" s="104"/>
-      <c r="BT8" s="104"/>
-      <c r="BU8" s="104"/>
-      <c r="BV8" s="104"/>
-      <c r="BW8" s="104"/>
-      <c r="BX8" s="104"/>
-      <c r="BY8" s="104"/>
-      <c r="BZ8" s="104"/>
-      <c r="CA8" s="104"/>
-      <c r="CB8" s="104"/>
-      <c r="CC8" s="104"/>
-      <c r="CD8" s="104"/>
-      <c r="CE8" s="104"/>
-      <c r="CF8" s="104"/>
-      <c r="CG8" s="104"/>
-      <c r="CH8" s="104"/>
-      <c r="CI8" s="104"/>
-      <c r="CJ8" s="104"/>
-      <c r="CK8" s="104"/>
-      <c r="CL8" s="104"/>
-      <c r="CM8" s="104"/>
-      <c r="CN8" s="104"/>
-      <c r="CO8" s="104"/>
+      <c r="BM8" s="136"/>
+      <c r="BN8" s="136"/>
+      <c r="BO8" s="136"/>
+      <c r="BP8" s="136"/>
+      <c r="BQ8" s="136"/>
+      <c r="BR8" s="136"/>
+      <c r="BS8" s="136"/>
+      <c r="BT8" s="136"/>
+      <c r="BU8" s="136"/>
+      <c r="BV8" s="136"/>
+      <c r="BW8" s="136"/>
+      <c r="BX8" s="136"/>
+      <c r="BY8" s="136"/>
+      <c r="BZ8" s="136"/>
+      <c r="CA8" s="136"/>
+      <c r="CB8" s="136"/>
+      <c r="CC8" s="136"/>
+      <c r="CD8" s="136"/>
+      <c r="CE8" s="136"/>
+      <c r="CF8" s="136"/>
+      <c r="CG8" s="136"/>
+      <c r="CH8" s="136"/>
+      <c r="CI8" s="136"/>
+      <c r="CJ8" s="136"/>
+      <c r="CK8" s="136"/>
+      <c r="CL8" s="136"/>
+      <c r="CM8" s="136"/>
+      <c r="CN8" s="136"/>
+      <c r="CO8" s="136"/>
       <c r="CR8" s="104"/>
       <c r="CS8" s="104"/>
       <c r="CT8" s="104"/>
@@ -31574,7 +31285,7 @@
     </row>
     <row r="9" spans="2:124" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="577" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C9" s="578"/>
       <c r="D9" s="579" t="s">
@@ -31631,7 +31342,7 @@
       <c r="AC9" s="575"/>
       <c r="AD9" s="575"/>
       <c r="AG9" s="577" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AH9" s="578"/>
       <c r="AI9" s="581" t="s">
@@ -31674,87 +31385,89 @@
       <c r="BH9" s="702"/>
       <c r="BI9" s="703"/>
       <c r="BK9" s="133"/>
-      <c r="BM9" s="672" t="s">
+      <c r="BM9" s="570" t="s">
         <v>50</v>
       </c>
-      <c r="BN9" s="588"/>
-      <c r="BO9" s="240" t="s">
+      <c r="BN9" s="553"/>
+      <c r="BO9" s="579" t="s">
         <v>78</v>
       </c>
-      <c r="BP9" s="240"/>
-      <c r="BQ9" s="240" t="s">
+      <c r="BP9" s="579"/>
+      <c r="BQ9" s="579" t="s">
         <v>77</v>
       </c>
-      <c r="BR9" s="240"/>
-      <c r="BS9" s="240" t="s">
+      <c r="BR9" s="579"/>
+      <c r="BS9" s="579" t="s">
         <v>76</v>
       </c>
-      <c r="BT9" s="240"/>
-      <c r="BU9" s="247" t="s">
-        <v>113</v>
-      </c>
-      <c r="BV9" s="247"/>
-      <c r="BW9" s="247">
+      <c r="BT9" s="579"/>
+      <c r="BU9" s="580" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV9" s="580"/>
+      <c r="BW9" s="580">
         <v>0.05</v>
       </c>
-      <c r="BX9" s="240"/>
-      <c r="BY9" s="814" t="s">
+      <c r="BX9" s="579"/>
+      <c r="BY9" s="572" t="s">
         <v>70</v>
       </c>
-      <c r="BZ9" s="815"/>
-      <c r="CA9" s="797" t="s">
+      <c r="BZ9" s="573"/>
+      <c r="CA9" s="581" t="s">
         <v>87</v>
       </c>
-      <c r="CB9" s="798"/>
-      <c r="CC9" s="799" t="s">
+      <c r="CB9" s="582"/>
+      <c r="CC9" s="581" t="s">
         <v>86</v>
       </c>
-      <c r="CD9" s="800"/>
-      <c r="CE9" s="799" t="s">
+      <c r="CD9" s="582"/>
+      <c r="CE9" s="581" t="s">
         <v>85</v>
       </c>
-      <c r="CF9" s="800"/>
-      <c r="CG9" s="799" t="s">
+      <c r="CF9" s="582"/>
+      <c r="CG9" s="581" t="s">
         <v>84</v>
       </c>
-      <c r="CH9" s="800"/>
-      <c r="CI9" s="799" t="s">
+      <c r="CH9" s="582"/>
+      <c r="CI9" s="581" t="s">
         <v>83</v>
       </c>
-      <c r="CJ9" s="800"/>
-      <c r="CK9" s="814" t="s">
+      <c r="CJ9" s="582"/>
+      <c r="CK9" s="572" t="s">
         <v>71</v>
       </c>
-      <c r="CL9" s="815"/>
-      <c r="CM9" s="762"/>
-      <c r="CN9" s="763"/>
-      <c r="CO9" s="763"/>
+      <c r="CL9" s="573"/>
+      <c r="CM9" s="574" t="s">
+        <v>30</v>
+      </c>
+      <c r="CN9" s="575"/>
+      <c r="CO9" s="575"/>
       <c r="CR9" s="672" t="s">
         <v>50</v>
       </c>
       <c r="CS9" s="588"/>
       <c r="CT9" s="222" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="CU9" s="222"/>
       <c r="CV9" s="222" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CW9" s="222"/>
       <c r="CX9" s="222" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CY9" s="222"/>
       <c r="CZ9" s="597" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="DA9" s="597"/>
       <c r="DB9" s="597" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DC9" s="597"/>
       <c r="DD9" s="594" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="DE9" s="594"/>
       <c r="DF9" s="591"/>
@@ -31762,15 +31475,15 @@
       <c r="DH9" s="591"/>
       <c r="DI9" s="592"/>
       <c r="DJ9" s="657" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="DK9" s="657"/>
       <c r="DL9" s="657" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="DM9" s="657"/>
       <c r="DN9" s="657" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="DO9" s="657"/>
       <c r="DP9" s="657" t="s">
@@ -31841,49 +31554,35 @@
       <c r="BH10" s="705"/>
       <c r="BI10" s="706"/>
       <c r="BK10" s="133"/>
-      <c r="BM10" s="588"/>
-      <c r="BN10" s="588"/>
-      <c r="BO10" s="240"/>
-      <c r="BP10" s="240"/>
-      <c r="BQ10" s="240"/>
-      <c r="BR10" s="240"/>
-      <c r="BS10" s="240"/>
-      <c r="BT10" s="240"/>
-      <c r="BU10" s="247"/>
-      <c r="BV10" s="247"/>
-      <c r="BW10" s="240"/>
-      <c r="BX10" s="240"/>
-      <c r="BY10" s="646" t="s">
-        <v>87</v>
-      </c>
-      <c r="BZ10" s="647"/>
-      <c r="CA10" s="646" t="s">
-        <v>248</v>
-      </c>
-      <c r="CB10" s="647"/>
-      <c r="CC10" s="646" t="s">
-        <v>85</v>
-      </c>
-      <c r="CD10" s="647"/>
-      <c r="CE10" s="646" t="s">
-        <v>84</v>
-      </c>
-      <c r="CF10" s="647"/>
-      <c r="CG10" s="646" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH10" s="647"/>
-      <c r="CI10" s="844" t="s">
-        <v>71</v>
-      </c>
-      <c r="CJ10" s="845"/>
-      <c r="CK10" s="844" t="s">
-        <v>70</v>
-      </c>
-      <c r="CL10" s="845"/>
-      <c r="CM10" s="762"/>
-      <c r="CN10" s="763"/>
-      <c r="CO10" s="763"/>
+      <c r="BM10" s="553"/>
+      <c r="BN10" s="553"/>
+      <c r="BO10" s="579"/>
+      <c r="BP10" s="579"/>
+      <c r="BQ10" s="579"/>
+      <c r="BR10" s="579"/>
+      <c r="BS10" s="579"/>
+      <c r="BT10" s="579"/>
+      <c r="BU10" s="580"/>
+      <c r="BV10" s="580"/>
+      <c r="BW10" s="579"/>
+      <c r="BX10" s="579"/>
+      <c r="BY10" s="573"/>
+      <c r="BZ10" s="573"/>
+      <c r="CA10" s="582"/>
+      <c r="CB10" s="582"/>
+      <c r="CC10" s="582"/>
+      <c r="CD10" s="582"/>
+      <c r="CE10" s="582"/>
+      <c r="CF10" s="582"/>
+      <c r="CG10" s="582"/>
+      <c r="CH10" s="582"/>
+      <c r="CI10" s="582"/>
+      <c r="CJ10" s="582"/>
+      <c r="CK10" s="573"/>
+      <c r="CL10" s="573"/>
+      <c r="CM10" s="574"/>
+      <c r="CN10" s="575"/>
+      <c r="CO10" s="575"/>
       <c r="CR10" s="588"/>
       <c r="CS10" s="588"/>
       <c r="CT10" s="222"/>
@@ -31916,7 +31615,7 @@
     </row>
     <row r="11" spans="2:124" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="541" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C11" s="542"/>
       <c r="D11" s="542"/>
@@ -32014,84 +31713,86 @@
       <c r="BH11" s="693"/>
       <c r="BI11" s="693"/>
       <c r="BK11" s="133"/>
-      <c r="BM11" s="823"/>
-      <c r="BN11" s="824"/>
-      <c r="BO11" s="825"/>
-      <c r="BP11" s="168" t="s">
+      <c r="BM11" s="549" t="s">
+        <v>280</v>
+      </c>
+      <c r="BN11" s="549"/>
+      <c r="BO11" s="549"/>
+      <c r="BP11" s="552" t="s">
         <v>100</v>
       </c>
-      <c r="BQ11" s="168"/>
-      <c r="BR11" s="168" t="s">
+      <c r="BQ11" s="552"/>
+      <c r="BR11" s="552" t="s">
         <v>17</v>
       </c>
-      <c r="BS11" s="168"/>
-      <c r="BT11" s="168" t="s">
+      <c r="BS11" s="552"/>
+      <c r="BT11" s="552" t="s">
         <v>32</v>
       </c>
-      <c r="BU11" s="168"/>
-      <c r="BV11" s="168" t="s">
+      <c r="BU11" s="552"/>
+      <c r="BV11" s="552" t="s">
         <v>16</v>
       </c>
-      <c r="BW11" s="168"/>
-      <c r="BX11" s="168" t="s">
+      <c r="BW11" s="552"/>
+      <c r="BX11" s="569" t="s">
         <v>159</v>
       </c>
-      <c r="BY11" s="168"/>
-      <c r="BZ11" s="802" t="s">
+      <c r="BY11" s="569"/>
+      <c r="BZ11" s="553" t="s">
         <v>96</v>
       </c>
-      <c r="CA11" s="803"/>
-      <c r="CB11" s="430" t="s">
+      <c r="CA11" s="553"/>
+      <c r="CB11" s="569" t="s">
         <v>88</v>
       </c>
-      <c r="CC11" s="180"/>
-      <c r="CD11" s="430" t="s">
+      <c r="CC11" s="569"/>
+      <c r="CD11" s="569" t="s">
         <v>14</v>
       </c>
-      <c r="CE11" s="180"/>
-      <c r="CF11" s="430" t="s">
+      <c r="CE11" s="569"/>
+      <c r="CF11" s="569" t="s">
         <v>42</v>
       </c>
-      <c r="CG11" s="180"/>
-      <c r="CH11" s="430" t="s">
+      <c r="CG11" s="569"/>
+      <c r="CH11" s="569" t="s">
         <v>31</v>
       </c>
-      <c r="CI11" s="180"/>
-      <c r="CJ11" s="430" t="s">
+      <c r="CI11" s="569"/>
+      <c r="CJ11" s="569" t="s">
         <v>89</v>
       </c>
-      <c r="CK11" s="180"/>
-      <c r="CL11" s="802" t="s">
+      <c r="CK11" s="569"/>
+      <c r="CL11" s="553" t="s">
         <v>68</v>
       </c>
-      <c r="CM11" s="803"/>
-      <c r="CN11" s="802" t="s">
+      <c r="CM11" s="553"/>
+      <c r="CN11" s="553" t="s">
         <v>67</v>
       </c>
-      <c r="CO11" s="803"/>
+      <c r="CO11" s="553"/>
       <c r="CR11" s="673"/>
       <c r="CS11" s="673"/>
       <c r="CT11" s="673"/>
       <c r="CU11" s="191" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CV11" s="191"/>
       <c r="CW11" s="191" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CX11" s="191"/>
       <c r="CY11" s="590" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="CZ11" s="590"/>
       <c r="DA11" s="191" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DB11" s="191"/>
       <c r="DC11" s="337"/>
       <c r="DD11" s="337"/>
       <c r="DE11" s="589" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="DF11" s="589"/>
       <c r="DG11" s="337"/>
@@ -32111,7 +31812,7 @@
       </c>
       <c r="DP11" s="657"/>
       <c r="DQ11" s="161" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="DR11" s="161"/>
       <c r="DS11" s="588"/>
@@ -32177,51 +31878,35 @@
       <c r="BH12" s="693"/>
       <c r="BI12" s="693"/>
       <c r="BK12" s="133"/>
-      <c r="BM12" s="826"/>
-      <c r="BN12" s="827"/>
-      <c r="BO12" s="828"/>
-      <c r="BP12" s="168"/>
-      <c r="BQ12" s="194"/>
-      <c r="BR12" s="194"/>
-      <c r="BS12" s="194"/>
-      <c r="BT12" s="194"/>
-      <c r="BU12" s="194"/>
-      <c r="BV12" s="194"/>
-      <c r="BW12" s="194"/>
-      <c r="BX12" s="194"/>
-      <c r="BY12" s="194"/>
-      <c r="BZ12" s="646" t="s">
-        <v>88</v>
-      </c>
-      <c r="CA12" s="647"/>
-      <c r="CB12" s="646" t="s">
-        <v>14</v>
-      </c>
-      <c r="CC12" s="647"/>
-      <c r="CD12" s="646" t="s">
-        <v>42</v>
-      </c>
-      <c r="CE12" s="846"/>
-      <c r="CF12" s="847" t="s">
-        <v>31</v>
-      </c>
-      <c r="CG12" s="846"/>
-      <c r="CH12" s="847" t="s">
-        <v>89</v>
-      </c>
-      <c r="CI12" s="846"/>
-      <c r="CJ12" s="847" t="s">
-        <v>68</v>
-      </c>
-      <c r="CK12" s="846"/>
-      <c r="CL12" s="847" t="s">
-        <v>67</v>
-      </c>
-      <c r="CM12" s="647"/>
-      <c r="CN12" s="646" t="s">
-        <v>96</v>
-      </c>
-      <c r="CO12" s="647"/>
+      <c r="BM12" s="549"/>
+      <c r="BN12" s="549"/>
+      <c r="BO12" s="549"/>
+      <c r="BP12" s="552"/>
+      <c r="BQ12" s="576"/>
+      <c r="BR12" s="576"/>
+      <c r="BS12" s="576"/>
+      <c r="BT12" s="576"/>
+      <c r="BU12" s="576"/>
+      <c r="BV12" s="576"/>
+      <c r="BW12" s="576"/>
+      <c r="BX12" s="569"/>
+      <c r="BY12" s="569"/>
+      <c r="BZ12" s="553"/>
+      <c r="CA12" s="553"/>
+      <c r="CB12" s="569"/>
+      <c r="CC12" s="569"/>
+      <c r="CD12" s="569"/>
+      <c r="CE12" s="608"/>
+      <c r="CF12" s="608"/>
+      <c r="CG12" s="608"/>
+      <c r="CH12" s="608"/>
+      <c r="CI12" s="608"/>
+      <c r="CJ12" s="608"/>
+      <c r="CK12" s="608"/>
+      <c r="CL12" s="554"/>
+      <c r="CM12" s="553"/>
+      <c r="CN12" s="553"/>
+      <c r="CO12" s="553"/>
       <c r="CR12" s="673"/>
       <c r="CS12" s="673"/>
       <c r="CT12" s="673"/>
@@ -32264,15 +31949,15 @@
       </c>
       <c r="G13" s="558"/>
       <c r="H13" s="561" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I13" s="562"/>
       <c r="J13" s="565" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K13" s="562"/>
       <c r="L13" s="565" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M13" s="566"/>
       <c r="N13" s="568" t="s">
@@ -32337,116 +32022,118 @@
       </c>
       <c r="AV13" s="553"/>
       <c r="AW13" s="693"/>
-      <c r="AX13" s="786"/>
-      <c r="AY13" s="787"/>
-      <c r="AZ13" s="788"/>
-      <c r="BA13" s="788"/>
-      <c r="BB13" s="788"/>
-      <c r="BC13" s="788"/>
-      <c r="BD13" s="788"/>
-      <c r="BE13" s="788"/>
-      <c r="BF13" s="809"/>
+      <c r="AX13" s="780"/>
+      <c r="AY13" s="781"/>
+      <c r="AZ13" s="782"/>
+      <c r="BA13" s="782"/>
+      <c r="BB13" s="782"/>
+      <c r="BC13" s="782"/>
+      <c r="BD13" s="782"/>
+      <c r="BE13" s="782"/>
+      <c r="BF13" s="797"/>
       <c r="BG13" s="625"/>
       <c r="BH13" s="625"/>
       <c r="BI13" s="626"/>
       <c r="BK13" s="133"/>
-      <c r="BM13" s="816" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN13" s="817"/>
-      <c r="BO13" s="817"/>
-      <c r="BP13" s="818"/>
-      <c r="BQ13" s="641" t="s">
+      <c r="BM13" s="555" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN13" s="555"/>
+      <c r="BO13" s="555"/>
+      <c r="BP13" s="556"/>
+      <c r="BQ13" s="557" t="s">
         <v>15</v>
       </c>
-      <c r="BR13" s="642"/>
-      <c r="BS13" s="829" t="s">
+      <c r="BR13" s="558"/>
+      <c r="BS13" s="545" t="s">
         <v>157</v>
       </c>
-      <c r="BT13" s="829"/>
-      <c r="BU13" s="829" t="s">
+      <c r="BT13" s="545"/>
+      <c r="BU13" s="545" t="s">
         <v>158</v>
       </c>
-      <c r="BV13" s="829"/>
-      <c r="BW13" s="642" t="s">
+      <c r="BV13" s="545"/>
+      <c r="BW13" s="545" t="s">
         <v>34</v>
       </c>
-      <c r="BX13" s="776"/>
-      <c r="BY13" s="180" t="s">
+      <c r="BX13" s="632"/>
+      <c r="BY13" s="568" t="s">
         <v>48</v>
       </c>
-      <c r="BZ13" s="168"/>
-      <c r="CA13" s="822" t="s">
+      <c r="BZ13" s="569"/>
+      <c r="CA13" s="570" t="s">
         <v>90</v>
       </c>
-      <c r="CB13" s="803"/>
-      <c r="CC13" s="430" t="s">
+      <c r="CB13" s="553"/>
+      <c r="CC13" s="569" t="s">
         <v>33</v>
       </c>
-      <c r="CD13" s="530"/>
-      <c r="CE13" s="831" t="s">
+      <c r="CD13" s="571"/>
+      <c r="CE13" s="544" t="s">
         <v>98</v>
       </c>
-      <c r="CF13" s="832"/>
-      <c r="CG13" s="833" t="s">
+      <c r="CF13" s="545"/>
+      <c r="CG13" s="545" t="s">
         <v>99</v>
       </c>
-      <c r="CH13" s="832"/>
-      <c r="CI13" s="833" t="s">
+      <c r="CH13" s="545"/>
+      <c r="CI13" s="545" t="s">
         <v>66</v>
       </c>
-      <c r="CJ13" s="832"/>
-      <c r="CK13" s="834" t="s">
+      <c r="CJ13" s="545"/>
+      <c r="CK13" s="291" t="s">
         <v>97</v>
       </c>
-      <c r="CL13" s="277"/>
-      <c r="CM13" s="838"/>
-      <c r="CN13" s="839"/>
-      <c r="CO13" s="840"/>
+      <c r="CL13" s="292"/>
+      <c r="CM13" s="548" t="s">
+        <v>94</v>
+      </c>
+      <c r="CN13" s="549"/>
+      <c r="CO13" s="549"/>
       <c r="CR13" s="162"/>
       <c r="CS13" s="162"/>
       <c r="CT13" s="162"/>
       <c r="CU13" s="171"/>
       <c r="CV13" s="660" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="CW13" s="661"/>
       <c r="CX13" s="661" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CY13" s="661"/>
       <c r="CZ13" s="661" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="DA13" s="661"/>
       <c r="DB13" s="661" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="DC13" s="664"/>
       <c r="DD13" s="666" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="DE13" s="590"/>
       <c r="DF13" s="589" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="DG13" s="589"/>
       <c r="DH13" s="337"/>
       <c r="DI13" s="528"/>
       <c r="DJ13" s="216" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="DK13" s="217"/>
       <c r="DL13" s="217" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="DM13" s="217"/>
       <c r="DN13" s="217" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="DO13" s="217"/>
       <c r="DP13" s="217" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="DQ13" s="220"/>
       <c r="DR13" s="667" t="s">
@@ -32502,60 +32189,48 @@
       <c r="AU14" s="553"/>
       <c r="AV14" s="553"/>
       <c r="AW14" s="693"/>
-      <c r="AX14" s="786"/>
-      <c r="AY14" s="789"/>
-      <c r="AZ14" s="790"/>
-      <c r="BA14" s="790"/>
-      <c r="BB14" s="790"/>
-      <c r="BC14" s="790"/>
-      <c r="BD14" s="790"/>
-      <c r="BE14" s="790"/>
-      <c r="BF14" s="810"/>
+      <c r="AX14" s="780"/>
+      <c r="AY14" s="783"/>
+      <c r="AZ14" s="784"/>
+      <c r="BA14" s="784"/>
+      <c r="BB14" s="784"/>
+      <c r="BC14" s="784"/>
+      <c r="BD14" s="784"/>
+      <c r="BE14" s="784"/>
+      <c r="BF14" s="798"/>
       <c r="BG14" s="627"/>
       <c r="BH14" s="627"/>
       <c r="BI14" s="628"/>
       <c r="BK14" s="133"/>
-      <c r="BM14" s="819"/>
-      <c r="BN14" s="820"/>
-      <c r="BO14" s="820"/>
-      <c r="BP14" s="821"/>
-      <c r="BQ14" s="643"/>
-      <c r="BR14" s="271"/>
-      <c r="BS14" s="830"/>
-      <c r="BT14" s="830"/>
-      <c r="BU14" s="830"/>
-      <c r="BV14" s="830"/>
-      <c r="BW14" s="271"/>
-      <c r="BX14" s="272"/>
-      <c r="BY14" s="180"/>
-      <c r="BZ14" s="168"/>
-      <c r="CA14" s="646" t="s">
-        <v>33</v>
-      </c>
-      <c r="CB14" s="647"/>
-      <c r="CC14" s="646" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD14" s="835"/>
-      <c r="CE14" s="764" t="s">
-        <v>99</v>
-      </c>
-      <c r="CF14" s="765"/>
-      <c r="CG14" s="766" t="s">
-        <v>66</v>
-      </c>
-      <c r="CH14" s="765"/>
-      <c r="CI14" s="766" t="s">
-        <v>97</v>
-      </c>
-      <c r="CJ14" s="765"/>
-      <c r="CK14" s="836" t="s">
-        <v>90</v>
-      </c>
-      <c r="CL14" s="837"/>
-      <c r="CM14" s="841"/>
-      <c r="CN14" s="842"/>
-      <c r="CO14" s="843"/>
+      <c r="BM14" s="555"/>
+      <c r="BN14" s="555"/>
+      <c r="BO14" s="555"/>
+      <c r="BP14" s="556"/>
+      <c r="BQ14" s="559"/>
+      <c r="BR14" s="560"/>
+      <c r="BS14" s="547"/>
+      <c r="BT14" s="547"/>
+      <c r="BU14" s="547"/>
+      <c r="BV14" s="547"/>
+      <c r="BW14" s="547"/>
+      <c r="BX14" s="633"/>
+      <c r="BY14" s="568"/>
+      <c r="BZ14" s="569"/>
+      <c r="CA14" s="553"/>
+      <c r="CB14" s="553"/>
+      <c r="CC14" s="569"/>
+      <c r="CD14" s="571"/>
+      <c r="CE14" s="546"/>
+      <c r="CF14" s="547"/>
+      <c r="CG14" s="547"/>
+      <c r="CH14" s="547"/>
+      <c r="CI14" s="547"/>
+      <c r="CJ14" s="547"/>
+      <c r="CK14" s="293"/>
+      <c r="CL14" s="294"/>
+      <c r="CM14" s="548"/>
+      <c r="CN14" s="549"/>
+      <c r="CO14" s="549"/>
       <c r="CR14" s="162"/>
       <c r="CS14" s="162"/>
       <c r="CT14" s="162"/>
@@ -32668,67 +32343,71 @@
       <c r="AV15" s="676"/>
       <c r="AW15" s="677"/>
       <c r="AX15" s="693"/>
-      <c r="AY15" s="759"/>
-      <c r="AZ15" s="759"/>
-      <c r="BA15" s="759"/>
-      <c r="BB15" s="759"/>
-      <c r="BC15" s="759"/>
-      <c r="BD15" s="759"/>
-      <c r="BE15" s="759"/>
-      <c r="BF15" s="804"/>
-      <c r="BG15" s="805"/>
-      <c r="BH15" s="805"/>
-      <c r="BI15" s="806"/>
+      <c r="AY15" s="753"/>
+      <c r="AZ15" s="753"/>
+      <c r="BA15" s="753"/>
+      <c r="BB15" s="753"/>
+      <c r="BC15" s="753"/>
+      <c r="BD15" s="753"/>
+      <c r="BE15" s="753"/>
+      <c r="BF15" s="792"/>
+      <c r="BG15" s="793"/>
+      <c r="BH15" s="793"/>
+      <c r="BI15" s="794"/>
       <c r="BK15" s="133"/>
-      <c r="BM15" s="162"/>
-      <c r="BN15" s="162"/>
-      <c r="BO15" s="162"/>
-      <c r="BP15" s="162"/>
-      <c r="BQ15" s="166"/>
-      <c r="BR15" s="167" t="s">
+      <c r="BM15" s="540" t="s">
+        <v>247</v>
+      </c>
+      <c r="BN15" s="540"/>
+      <c r="BO15" s="540"/>
+      <c r="BP15" s="540"/>
+      <c r="BQ15" s="550"/>
+      <c r="BR15" s="551" t="s">
         <v>101</v>
       </c>
-      <c r="BS15" s="167"/>
-      <c r="BT15" s="167" t="s">
+      <c r="BS15" s="551"/>
+      <c r="BT15" s="551" t="s">
         <v>102</v>
       </c>
-      <c r="BU15" s="167"/>
-      <c r="BV15" s="167" t="s">
+      <c r="BU15" s="551"/>
+      <c r="BV15" s="551" t="s">
         <v>103</v>
       </c>
-      <c r="BW15" s="167"/>
-      <c r="BX15" s="167" t="s">
+      <c r="BW15" s="551"/>
+      <c r="BX15" s="551" t="s">
         <v>104</v>
       </c>
-      <c r="BY15" s="168"/>
-      <c r="BZ15" s="168" t="s">
+      <c r="BY15" s="552"/>
+      <c r="BZ15" s="552" t="s">
         <v>105</v>
       </c>
-      <c r="CA15" s="168"/>
-      <c r="CB15" s="822" t="s">
+      <c r="CA15" s="552"/>
+      <c r="CB15" s="553" t="s">
         <v>91</v>
       </c>
-      <c r="CC15" s="803"/>
-      <c r="CD15" s="430" t="s">
+      <c r="CC15" s="553"/>
+      <c r="CD15" s="569" t="s">
         <v>49</v>
       </c>
-      <c r="CE15" s="330"/>
-      <c r="CF15" s="329" t="s">
+      <c r="CE15" s="606"/>
+      <c r="CF15" s="606" t="s">
         <v>106</v>
       </c>
-      <c r="CG15" s="330"/>
-      <c r="CH15" s="333" t="s">
+      <c r="CG15" s="606"/>
+      <c r="CH15" s="607" t="s">
         <v>65</v>
       </c>
-      <c r="CI15" s="334"/>
-      <c r="CJ15" s="333" t="s">
+      <c r="CI15" s="607"/>
+      <c r="CJ15" s="607" t="s">
         <v>64</v>
       </c>
-      <c r="CK15" s="334"/>
-      <c r="CL15" s="493"/>
-      <c r="CM15" s="261"/>
-      <c r="CN15" s="261"/>
-      <c r="CO15" s="262"/>
+      <c r="CK15" s="607"/>
+      <c r="CL15" s="600" t="s">
+        <v>244</v>
+      </c>
+      <c r="CM15" s="601"/>
+      <c r="CN15" s="601"/>
+      <c r="CO15" s="602"/>
       <c r="CR15" s="162"/>
       <c r="CS15" s="162"/>
       <c r="CT15" s="162"/>
@@ -32739,37 +32418,37 @@
       </c>
       <c r="CX15" s="301"/>
       <c r="CY15" s="656" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="CZ15" s="656"/>
       <c r="DA15" s="656" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="DB15" s="656"/>
       <c r="DC15" s="656" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="DD15" s="657"/>
       <c r="DE15" s="657" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="DF15" s="657"/>
       <c r="DG15" s="588"/>
       <c r="DH15" s="588"/>
       <c r="DI15" s="222" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="DJ15" s="223"/>
       <c r="DK15" s="190" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="DL15" s="190"/>
       <c r="DM15" s="190" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="DN15" s="190"/>
       <c r="DO15" s="160" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="DP15" s="160"/>
       <c r="DQ15" s="166"/>
@@ -32833,49 +32512,39 @@
       <c r="BD16" s="693"/>
       <c r="BE16" s="693"/>
       <c r="BF16" s="715"/>
-      <c r="BG16" s="807"/>
-      <c r="BH16" s="807"/>
-      <c r="BI16" s="808"/>
+      <c r="BG16" s="795"/>
+      <c r="BH16" s="795"/>
+      <c r="BI16" s="796"/>
       <c r="BK16" s="133"/>
-      <c r="BM16" s="162"/>
-      <c r="BN16" s="162"/>
-      <c r="BO16" s="162"/>
-      <c r="BP16" s="162"/>
-      <c r="BQ16" s="162"/>
-      <c r="BR16" s="168"/>
-      <c r="BS16" s="168"/>
-      <c r="BT16" s="168"/>
-      <c r="BU16" s="168"/>
-      <c r="BV16" s="168"/>
-      <c r="BW16" s="168"/>
-      <c r="BX16" s="168"/>
-      <c r="BY16" s="168"/>
-      <c r="BZ16" s="168"/>
-      <c r="CA16" s="168"/>
-      <c r="CB16" s="646" t="s">
-        <v>49</v>
-      </c>
-      <c r="CC16" s="647"/>
-      <c r="CD16" s="646" t="s">
-        <v>106</v>
-      </c>
-      <c r="CE16" s="647"/>
-      <c r="CF16" s="646" t="s">
-        <v>65</v>
-      </c>
-      <c r="CG16" s="647"/>
-      <c r="CH16" s="646" t="s">
-        <v>64</v>
-      </c>
-      <c r="CI16" s="647"/>
-      <c r="CJ16" s="646" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK16" s="647"/>
-      <c r="CL16" s="263"/>
-      <c r="CM16" s="264"/>
-      <c r="CN16" s="264"/>
-      <c r="CO16" s="265"/>
+      <c r="BM16" s="540"/>
+      <c r="BN16" s="540"/>
+      <c r="BO16" s="540"/>
+      <c r="BP16" s="540"/>
+      <c r="BQ16" s="540"/>
+      <c r="BR16" s="552"/>
+      <c r="BS16" s="552"/>
+      <c r="BT16" s="552"/>
+      <c r="BU16" s="552"/>
+      <c r="BV16" s="552"/>
+      <c r="BW16" s="552"/>
+      <c r="BX16" s="552"/>
+      <c r="BY16" s="552"/>
+      <c r="BZ16" s="552"/>
+      <c r="CA16" s="552"/>
+      <c r="CB16" s="553"/>
+      <c r="CC16" s="553"/>
+      <c r="CD16" s="569"/>
+      <c r="CE16" s="569"/>
+      <c r="CF16" s="569"/>
+      <c r="CG16" s="569"/>
+      <c r="CH16" s="553"/>
+      <c r="CI16" s="553"/>
+      <c r="CJ16" s="553"/>
+      <c r="CK16" s="553"/>
+      <c r="CL16" s="603"/>
+      <c r="CM16" s="604"/>
+      <c r="CN16" s="604"/>
+      <c r="CO16" s="605"/>
       <c r="CR16" s="162"/>
       <c r="CS16" s="162"/>
       <c r="CT16" s="162"/>
@@ -32908,7 +32577,7 @@
     </row>
     <row r="17" spans="2:124" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="538" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C17" s="539"/>
       <c r="D17" s="539"/>
@@ -32923,7 +32592,7 @@
       </c>
       <c r="J17" s="540"/>
       <c r="K17" s="541" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="L17" s="542"/>
       <c r="M17" s="542"/>
@@ -32935,7 +32604,7 @@
       <c r="S17" s="542"/>
       <c r="T17" s="542"/>
       <c r="U17" s="541" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="V17" s="542"/>
       <c r="W17" s="543" t="s">
@@ -32960,7 +32629,7 @@
       <c r="AN17" s="555"/>
       <c r="AO17" s="555"/>
       <c r="AP17" s="746" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ17" s="746"/>
       <c r="AR17" s="746"/>
@@ -32982,41 +32651,49 @@
       <c r="BH17" s="136"/>
       <c r="BI17" s="136"/>
       <c r="BK17" s="133"/>
-      <c r="BM17" s="753" t="s">
-        <v>389</v>
-      </c>
-      <c r="BN17" s="754"/>
-      <c r="BO17" s="755"/>
-      <c r="BP17" s="104"/>
-      <c r="BQ17" s="104"/>
-      <c r="BR17" s="162"/>
-      <c r="BS17" s="162"/>
-      <c r="BT17" s="162"/>
-      <c r="BU17" s="162"/>
-      <c r="BV17" s="295" t="s">
+      <c r="BM17" s="538" t="s">
+        <v>385</v>
+      </c>
+      <c r="BN17" s="539"/>
+      <c r="BO17" s="539"/>
+      <c r="BP17" s="136"/>
+      <c r="BQ17" s="136"/>
+      <c r="BR17" s="540" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS17" s="540"/>
+      <c r="BT17" s="540" t="s">
+        <v>246</v>
+      </c>
+      <c r="BU17" s="540"/>
+      <c r="BV17" s="809" t="s">
         <v>95</v>
       </c>
-      <c r="BW17" s="295"/>
-      <c r="BX17" s="295"/>
-      <c r="BY17" s="295"/>
-      <c r="BZ17" s="295"/>
-      <c r="CA17" s="295"/>
-      <c r="CB17" s="295"/>
-      <c r="CC17" s="295"/>
-      <c r="CD17" s="295"/>
-      <c r="CE17" s="295"/>
-      <c r="CF17" s="779" t="s">
-        <v>274</v>
-      </c>
-      <c r="CG17" s="761"/>
-      <c r="CH17" s="197"/>
-      <c r="CI17" s="197"/>
-      <c r="CJ17" s="587"/>
-      <c r="CK17" s="587"/>
-      <c r="CL17" s="587"/>
-      <c r="CM17" s="587"/>
-      <c r="CN17" s="104"/>
-      <c r="CO17" s="104"/>
+      <c r="BW17" s="609"/>
+      <c r="BX17" s="609"/>
+      <c r="BY17" s="609"/>
+      <c r="BZ17" s="609"/>
+      <c r="CA17" s="609"/>
+      <c r="CB17" s="609"/>
+      <c r="CC17" s="609"/>
+      <c r="CD17" s="609"/>
+      <c r="CE17" s="609"/>
+      <c r="CF17" s="541" t="s">
+        <v>387</v>
+      </c>
+      <c r="CG17" s="542"/>
+      <c r="CH17" s="543" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI17" s="543"/>
+      <c r="CJ17" s="540" t="s">
+        <v>245</v>
+      </c>
+      <c r="CK17" s="540"/>
+      <c r="CL17" s="540"/>
+      <c r="CM17" s="540"/>
+      <c r="CN17" s="136"/>
+      <c r="CO17" s="136"/>
       <c r="CR17" s="648"/>
       <c r="CS17" s="649"/>
       <c r="CT17" s="649"/>
@@ -33037,7 +32714,7 @@
       <c r="DI17" s="586"/>
       <c r="DJ17" s="586"/>
       <c r="DK17" s="651" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="DL17" s="652"/>
       <c r="DM17" s="654"/>
@@ -33109,35 +32786,35 @@
       <c r="BH18" s="136"/>
       <c r="BI18" s="136"/>
       <c r="BK18" s="133"/>
-      <c r="BM18" s="756"/>
-      <c r="BN18" s="757"/>
-      <c r="BO18" s="758"/>
-      <c r="BP18" s="104"/>
-      <c r="BQ18" s="104"/>
-      <c r="BR18" s="162"/>
-      <c r="BS18" s="162"/>
-      <c r="BT18" s="162"/>
-      <c r="BU18" s="162"/>
-      <c r="BV18" s="295"/>
-      <c r="BW18" s="295"/>
-      <c r="BX18" s="295"/>
-      <c r="BY18" s="295"/>
-      <c r="BZ18" s="295"/>
-      <c r="CA18" s="295"/>
-      <c r="CB18" s="295"/>
-      <c r="CC18" s="295"/>
-      <c r="CD18" s="295"/>
-      <c r="CE18" s="295"/>
-      <c r="CF18" s="761"/>
-      <c r="CG18" s="761"/>
-      <c r="CH18" s="197"/>
-      <c r="CI18" s="197"/>
-      <c r="CJ18" s="587"/>
-      <c r="CK18" s="587"/>
-      <c r="CL18" s="587"/>
-      <c r="CM18" s="587"/>
-      <c r="CN18" s="104"/>
-      <c r="CO18" s="104"/>
+      <c r="BM18" s="539"/>
+      <c r="BN18" s="539"/>
+      <c r="BO18" s="539"/>
+      <c r="BP18" s="136"/>
+      <c r="BQ18" s="136"/>
+      <c r="BR18" s="540"/>
+      <c r="BS18" s="540"/>
+      <c r="BT18" s="540"/>
+      <c r="BU18" s="540"/>
+      <c r="BV18" s="609"/>
+      <c r="BW18" s="609"/>
+      <c r="BX18" s="609"/>
+      <c r="BY18" s="609"/>
+      <c r="BZ18" s="609"/>
+      <c r="CA18" s="609"/>
+      <c r="CB18" s="609"/>
+      <c r="CC18" s="609"/>
+      <c r="CD18" s="609"/>
+      <c r="CE18" s="609"/>
+      <c r="CF18" s="542"/>
+      <c r="CG18" s="542"/>
+      <c r="CH18" s="543"/>
+      <c r="CI18" s="543"/>
+      <c r="CJ18" s="540"/>
+      <c r="CK18" s="540"/>
+      <c r="CL18" s="540"/>
+      <c r="CM18" s="540"/>
+      <c r="CN18" s="136"/>
+      <c r="CO18" s="136"/>
       <c r="CR18" s="650"/>
       <c r="CS18" s="650"/>
       <c r="CT18" s="650"/>
@@ -33169,9 +32846,7 @@
       <c r="DT18" s="104"/>
     </row>
     <row r="19" spans="2:124" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="138" t="s">
-        <v>352</v>
-      </c>
+      <c r="B19" s="138"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -33201,14 +32876,14 @@
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
       <c r="AG19" s="131" t="s">
-        <v>368</v>
+        <v>429</v>
       </c>
       <c r="BK19" s="133"/>
       <c r="BM19" s="131" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="CR19" s="131" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="2:124" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -33242,8 +32917,9 @@
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
       <c r="BK20" s="133"/>
+      <c r="BM20" s="131"/>
       <c r="CR20" s="131" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="2:124" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -33304,7 +32980,7 @@
       <c r="R22" s="609"/>
       <c r="S22" s="137"/>
       <c r="T22" s="610" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="U22" s="610"/>
       <c r="V22" s="610"/>
@@ -33318,7 +32994,7 @@
       <c r="AD22" s="14"/>
       <c r="BK22" s="133"/>
       <c r="BM22" s="669" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="BN22" s="670"/>
       <c r="BO22" s="670"/>
@@ -33411,7 +33087,7 @@
       <c r="AC23" s="14"/>
       <c r="AD23" s="14"/>
       <c r="AH23" s="148" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="AI23" s="149"/>
       <c r="AJ23" s="149"/>
@@ -33458,7 +33134,7 @@
       <c r="R24" s="609"/>
       <c r="S24" s="137"/>
       <c r="T24" s="150" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="U24" s="137"/>
       <c r="V24" s="137"/>
@@ -33471,7 +33147,7 @@
       <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
       <c r="AH24" s="148" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AI24" s="149"/>
       <c r="AJ24" s="149"/>
@@ -33521,11 +33197,11 @@
       <c r="CN24" s="197"/>
       <c r="CO24" s="197"/>
       <c r="CR24" s="668" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="CS24" s="668"/>
       <c r="CT24" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="CU24" s="14"/>
       <c r="CV24" s="14"/>
@@ -33574,7 +33250,7 @@
       <c r="R25" s="609"/>
       <c r="S25" s="137"/>
       <c r="T25" s="150" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="U25" s="137"/>
       <c r="V25" s="137"/>
@@ -33617,11 +33293,11 @@
       <c r="CN25" s="197"/>
       <c r="CO25" s="197"/>
       <c r="CR25" s="668" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CS25" s="668"/>
       <c r="CT25" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="CU25" s="14"/>
       <c r="CV25" s="14"/>
@@ -33676,7 +33352,7 @@
       <c r="R26" s="609"/>
       <c r="S26" s="137"/>
       <c r="T26" s="150" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="U26" s="137"/>
       <c r="V26" s="137"/>
@@ -33719,11 +33395,11 @@
       <c r="CN26" s="109"/>
       <c r="CO26" s="109"/>
       <c r="CR26" s="668" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="CS26" s="668"/>
       <c r="CT26" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="CU26" s="14"/>
       <c r="CV26" s="14"/>
@@ -33783,18 +33459,18 @@
       <c r="AC27" s="14"/>
       <c r="AD27" s="14"/>
       <c r="BK27" s="133"/>
-      <c r="BM27" s="777" t="s">
-        <v>354</v>
+      <c r="BM27" s="771" t="s">
+        <v>352</v>
       </c>
       <c r="BN27" s="553"/>
-      <c r="BO27" s="853" t="s">
-        <v>435</v>
-      </c>
-      <c r="BP27" s="853"/>
-      <c r="BQ27" s="854" t="s">
-        <v>434</v>
-      </c>
-      <c r="BR27" s="854"/>
+      <c r="BO27" s="807" t="s">
+        <v>427</v>
+      </c>
+      <c r="BP27" s="807"/>
+      <c r="BQ27" s="808" t="s">
+        <v>426</v>
+      </c>
+      <c r="BR27" s="808"/>
       <c r="BS27" s="240"/>
       <c r="BT27" s="240"/>
       <c r="BU27" s="247"/>
@@ -33815,15 +33491,15 @@
       <c r="CJ27" s="240"/>
       <c r="CK27" s="342"/>
       <c r="CL27" s="344"/>
-      <c r="CM27" s="762"/>
-      <c r="CN27" s="763"/>
-      <c r="CO27" s="763"/>
+      <c r="CM27" s="756"/>
+      <c r="CN27" s="757"/>
+      <c r="CO27" s="757"/>
       <c r="CR27" s="668" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="CS27" s="668"/>
       <c r="CT27" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="CU27" s="14"/>
       <c r="CV27" s="14"/>
@@ -33885,10 +33561,10 @@
       <c r="BK28" s="133"/>
       <c r="BM28" s="553"/>
       <c r="BN28" s="553"/>
-      <c r="BO28" s="853"/>
-      <c r="BP28" s="853"/>
-      <c r="BQ28" s="854"/>
-      <c r="BR28" s="854"/>
+      <c r="BO28" s="807"/>
+      <c r="BP28" s="807"/>
+      <c r="BQ28" s="808"/>
+      <c r="BR28" s="808"/>
       <c r="BS28" s="240"/>
       <c r="BT28" s="240"/>
       <c r="BU28" s="247"/>
@@ -33909,15 +33585,15 @@
       <c r="CJ28" s="240"/>
       <c r="CK28" s="344"/>
       <c r="CL28" s="344"/>
-      <c r="CM28" s="762"/>
-      <c r="CN28" s="763"/>
-      <c r="CO28" s="763"/>
+      <c r="CM28" s="756"/>
+      <c r="CN28" s="757"/>
+      <c r="CO28" s="757"/>
       <c r="CR28" s="668" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="CS28" s="668"/>
       <c r="CT28" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="CU28" s="14"/>
       <c r="CV28" s="14"/>
@@ -33977,21 +33653,21 @@
       <c r="AC29" s="14"/>
       <c r="AD29" s="14"/>
       <c r="BK29" s="133"/>
-      <c r="BM29" s="760"/>
-      <c r="BN29" s="761"/>
-      <c r="BO29" s="761"/>
+      <c r="BM29" s="754"/>
+      <c r="BN29" s="755"/>
+      <c r="BO29" s="755"/>
       <c r="BP29" s="168"/>
       <c r="BQ29" s="168"/>
       <c r="BR29" s="168"/>
       <c r="BS29" s="168"/>
-      <c r="BT29" s="770" t="s">
-        <v>345</v>
-      </c>
-      <c r="BU29" s="771"/>
-      <c r="BV29" s="770" t="s">
-        <v>346</v>
-      </c>
-      <c r="BW29" s="771"/>
+      <c r="BT29" s="764" t="s">
+        <v>343</v>
+      </c>
+      <c r="BU29" s="765"/>
+      <c r="BV29" s="764" t="s">
+        <v>344</v>
+      </c>
+      <c r="BW29" s="765"/>
       <c r="BX29" s="168"/>
       <c r="BY29" s="168"/>
       <c r="BZ29" s="634"/>
@@ -34011,11 +33687,11 @@
       <c r="CN29" s="634"/>
       <c r="CO29" s="635"/>
       <c r="CR29" s="668" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CS29" s="668"/>
       <c r="CT29" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="CU29" s="14"/>
       <c r="CV29" s="14"/>
@@ -34046,9 +33722,9 @@
     </row>
     <row r="30" spans="2:124" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BK30" s="133"/>
-      <c r="BM30" s="761"/>
-      <c r="BN30" s="761"/>
-      <c r="BO30" s="761"/>
+      <c r="BM30" s="755"/>
+      <c r="BN30" s="755"/>
+      <c r="BO30" s="755"/>
       <c r="BP30" s="168"/>
       <c r="BQ30" s="194"/>
       <c r="BR30" s="194"/>
@@ -34084,7 +33760,7 @@
       </c>
       <c r="CS30" s="668"/>
       <c r="CT30" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="CU30" s="14"/>
       <c r="CV30" s="14"/>
@@ -34115,7 +33791,7 @@
     </row>
     <row r="31" spans="2:124" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="537" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C31" s="537"/>
       <c r="D31" s="537"/>
@@ -34146,7 +33822,7 @@
       <c r="AC31" s="537"/>
       <c r="AD31" s="537"/>
       <c r="AG31" s="537" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AH31" s="537"/>
       <c r="AI31" s="537"/>
@@ -34181,22 +33857,22 @@
       <c r="BN31" s="162"/>
       <c r="BO31" s="162"/>
       <c r="BP31" s="171"/>
-      <c r="BQ31" s="767" t="s">
-        <v>343</v>
-      </c>
-      <c r="BR31" s="768"/>
-      <c r="BS31" s="769" t="s">
-        <v>276</v>
-      </c>
-      <c r="BT31" s="768"/>
-      <c r="BU31" s="769" t="s">
-        <v>279</v>
-      </c>
-      <c r="BV31" s="768"/>
+      <c r="BQ31" s="761" t="s">
+        <v>341</v>
+      </c>
+      <c r="BR31" s="762"/>
+      <c r="BS31" s="763" t="s">
+        <v>274</v>
+      </c>
+      <c r="BT31" s="762"/>
+      <c r="BU31" s="763" t="s">
+        <v>277</v>
+      </c>
+      <c r="BV31" s="762"/>
       <c r="BW31" s="642"/>
-      <c r="BX31" s="776"/>
+      <c r="BX31" s="770"/>
       <c r="BY31" s="644" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BZ31" s="645"/>
       <c r="CA31" s="634"/>
@@ -34209,17 +33885,17 @@
       <c r="CH31" s="642"/>
       <c r="CI31" s="642"/>
       <c r="CJ31" s="642"/>
-      <c r="CK31" s="772"/>
-      <c r="CL31" s="773"/>
-      <c r="CM31" s="762"/>
-      <c r="CN31" s="763"/>
-      <c r="CO31" s="763"/>
+      <c r="CK31" s="766"/>
+      <c r="CL31" s="767"/>
+      <c r="CM31" s="756"/>
+      <c r="CN31" s="757"/>
+      <c r="CO31" s="757"/>
       <c r="CR31" s="668" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="CS31" s="668"/>
       <c r="CT31" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="CU31" s="14"/>
       <c r="CV31" s="14"/>
@@ -34254,18 +33930,18 @@
       <c r="BN32" s="162"/>
       <c r="BO32" s="162"/>
       <c r="BP32" s="171"/>
-      <c r="BQ32" s="764" t="s">
+      <c r="BQ32" s="758" t="s">
         <v>15</v>
       </c>
-      <c r="BR32" s="765"/>
-      <c r="BS32" s="766" t="s">
+      <c r="BR32" s="759"/>
+      <c r="BS32" s="760" t="s">
         <v>157</v>
       </c>
-      <c r="BT32" s="765"/>
-      <c r="BU32" s="766" t="s">
+      <c r="BT32" s="759"/>
+      <c r="BU32" s="760" t="s">
         <v>158</v>
       </c>
-      <c r="BV32" s="765"/>
+      <c r="BV32" s="759"/>
       <c r="BW32" s="271"/>
       <c r="BX32" s="272"/>
       <c r="BY32" s="646" t="s">
@@ -34282,17 +33958,17 @@
       <c r="CH32" s="271"/>
       <c r="CI32" s="271"/>
       <c r="CJ32" s="271"/>
-      <c r="CK32" s="774"/>
-      <c r="CL32" s="775"/>
-      <c r="CM32" s="762"/>
-      <c r="CN32" s="763"/>
-      <c r="CO32" s="763"/>
+      <c r="CK32" s="768"/>
+      <c r="CL32" s="769"/>
+      <c r="CM32" s="756"/>
+      <c r="CN32" s="757"/>
+      <c r="CO32" s="757"/>
       <c r="CR32" s="668" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="CS32" s="668"/>
       <c r="CT32" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="CU32" s="14"/>
       <c r="CV32" s="14"/>
@@ -34363,19 +34039,19 @@
       <c r="AH33" s="609"/>
       <c r="AI33" s="136"/>
       <c r="AJ33" s="692" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AK33" s="692"/>
       <c r="AL33" s="692" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AM33" s="692"/>
       <c r="AN33" s="692" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AO33" s="692"/>
       <c r="AP33" s="692" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AQ33" s="692"/>
       <c r="AR33" s="136"/>
@@ -34397,19 +34073,19 @@
       <c r="BH33" s="543"/>
       <c r="BI33" s="543"/>
       <c r="BK33" s="133"/>
-      <c r="BM33" s="778"/>
-      <c r="BN33" s="778"/>
-      <c r="BO33" s="778"/>
-      <c r="BP33" s="778"/>
-      <c r="BQ33" s="813"/>
+      <c r="BM33" s="772"/>
+      <c r="BN33" s="772"/>
+      <c r="BO33" s="772"/>
+      <c r="BP33" s="772"/>
+      <c r="BQ33" s="801"/>
       <c r="BR33" s="167"/>
       <c r="BS33" s="167"/>
       <c r="BT33" s="167"/>
       <c r="BU33" s="167"/>
-      <c r="BV33" s="770" t="s">
+      <c r="BV33" s="764" t="s">
         <v>226</v>
       </c>
-      <c r="BW33" s="771"/>
+      <c r="BW33" s="765"/>
       <c r="BX33" s="167"/>
       <c r="BY33" s="168"/>
       <c r="BZ33" s="168"/>
@@ -34418,24 +34094,24 @@
       <c r="CC33" s="635"/>
       <c r="CD33" s="168"/>
       <c r="CE33" s="167"/>
-      <c r="CF33" s="770" t="s">
-        <v>280</v>
-      </c>
-      <c r="CG33" s="771"/>
+      <c r="CF33" s="764" t="s">
+        <v>278</v>
+      </c>
+      <c r="CG33" s="765"/>
       <c r="CH33" s="636"/>
       <c r="CI33" s="639"/>
       <c r="CJ33" s="636"/>
       <c r="CK33" s="639"/>
-      <c r="CL33" s="780"/>
-      <c r="CM33" s="781"/>
-      <c r="CN33" s="781"/>
-      <c r="CO33" s="782"/>
+      <c r="CL33" s="774"/>
+      <c r="CM33" s="775"/>
+      <c r="CN33" s="775"/>
+      <c r="CO33" s="776"/>
       <c r="CR33" s="668" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="CS33" s="668"/>
       <c r="CT33" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="CU33" s="14"/>
       <c r="CV33" s="14"/>
@@ -34524,11 +34200,11 @@
       <c r="BH34" s="543"/>
       <c r="BI34" s="543"/>
       <c r="BK34" s="133"/>
-      <c r="BM34" s="778"/>
-      <c r="BN34" s="778"/>
-      <c r="BO34" s="778"/>
-      <c r="BP34" s="778"/>
-      <c r="BQ34" s="778"/>
+      <c r="BM34" s="772"/>
+      <c r="BN34" s="772"/>
+      <c r="BO34" s="772"/>
+      <c r="BP34" s="772"/>
+      <c r="BQ34" s="772"/>
       <c r="BR34" s="168"/>
       <c r="BS34" s="168"/>
       <c r="BT34" s="168"/>
@@ -34553,16 +34229,16 @@
       <c r="CI34" s="637"/>
       <c r="CJ34" s="638"/>
       <c r="CK34" s="637"/>
-      <c r="CL34" s="783"/>
-      <c r="CM34" s="784"/>
-      <c r="CN34" s="784"/>
-      <c r="CO34" s="785"/>
+      <c r="CL34" s="777"/>
+      <c r="CM34" s="778"/>
+      <c r="CN34" s="778"/>
+      <c r="CO34" s="779"/>
       <c r="CR34" s="668" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="CS34" s="668"/>
       <c r="CT34" s="14" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="CU34" s="14"/>
       <c r="CV34" s="14"/>
@@ -34651,35 +34327,35 @@
       <c r="BH35" s="136"/>
       <c r="BI35" s="136"/>
       <c r="BK35" s="133"/>
-      <c r="BM35" s="811" t="s">
-        <v>273</v>
-      </c>
-      <c r="BN35" s="812"/>
-      <c r="BO35" s="812"/>
+      <c r="BM35" s="799" t="s">
+        <v>272</v>
+      </c>
+      <c r="BN35" s="800"/>
+      <c r="BO35" s="800"/>
       <c r="BP35" s="104"/>
       <c r="BQ35" s="104"/>
-      <c r="BR35" s="778"/>
-      <c r="BS35" s="778"/>
-      <c r="BT35" s="778"/>
-      <c r="BU35" s="778"/>
-      <c r="BV35" s="760"/>
-      <c r="BW35" s="761"/>
-      <c r="BX35" s="761"/>
-      <c r="BY35" s="761"/>
-      <c r="BZ35" s="761"/>
-      <c r="CA35" s="761"/>
-      <c r="CB35" s="761"/>
-      <c r="CC35" s="761"/>
-      <c r="CD35" s="761"/>
-      <c r="CE35" s="761"/>
-      <c r="CF35" s="779"/>
-      <c r="CG35" s="761"/>
+      <c r="BR35" s="772"/>
+      <c r="BS35" s="772"/>
+      <c r="BT35" s="772"/>
+      <c r="BU35" s="772"/>
+      <c r="BV35" s="754"/>
+      <c r="BW35" s="755"/>
+      <c r="BX35" s="755"/>
+      <c r="BY35" s="755"/>
+      <c r="BZ35" s="755"/>
+      <c r="CA35" s="755"/>
+      <c r="CB35" s="755"/>
+      <c r="CC35" s="755"/>
+      <c r="CD35" s="755"/>
+      <c r="CE35" s="755"/>
+      <c r="CF35" s="773"/>
+      <c r="CG35" s="755"/>
       <c r="CH35" s="598"/>
       <c r="CI35" s="598"/>
-      <c r="CJ35" s="778"/>
-      <c r="CK35" s="778"/>
-      <c r="CL35" s="778"/>
-      <c r="CM35" s="778"/>
+      <c r="CJ35" s="772"/>
+      <c r="CK35" s="772"/>
+      <c r="CL35" s="772"/>
+      <c r="CM35" s="772"/>
       <c r="CN35" s="104"/>
       <c r="CO35" s="104"/>
       <c r="CR35" s="668"/>
@@ -34714,31 +34390,31 @@
     </row>
     <row r="36" spans="2:124" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="577" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C36" s="578"/>
       <c r="D36" s="687" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E36" s="687"/>
       <c r="F36" s="687" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G36" s="687"/>
       <c r="H36" s="687" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I36" s="687"/>
       <c r="J36" s="597" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K36" s="597"/>
       <c r="L36" s="597" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M36" s="597"/>
       <c r="N36" s="594" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O36" s="594"/>
       <c r="P36" s="688"/>
@@ -34746,15 +34422,15 @@
       <c r="R36" s="688"/>
       <c r="S36" s="689"/>
       <c r="T36" s="684" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U36" s="684"/>
       <c r="V36" s="684" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W36" s="684"/>
       <c r="X36" s="684" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y36" s="684"/>
       <c r="Z36" s="684" t="s">
@@ -34765,31 +34441,31 @@
       <c r="AC36" s="609"/>
       <c r="AD36" s="609"/>
       <c r="AG36" s="577" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AH36" s="578"/>
       <c r="AI36" s="579" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AJ36" s="579"/>
       <c r="AK36" s="579" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AL36" s="579"/>
       <c r="AM36" s="579" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AN36" s="579"/>
       <c r="AO36" s="580" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AP36" s="580"/>
       <c r="AQ36" s="580" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AR36" s="579"/>
       <c r="AS36" s="690" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AT36" s="691"/>
       <c r="AU36" s="693"/>
@@ -34808,33 +34484,33 @@
       <c r="BH36" s="702"/>
       <c r="BI36" s="703"/>
       <c r="BK36" s="133"/>
-      <c r="BM36" s="812"/>
-      <c r="BN36" s="812"/>
-      <c r="BO36" s="812"/>
+      <c r="BM36" s="800"/>
+      <c r="BN36" s="800"/>
+      <c r="BO36" s="800"/>
       <c r="BP36" s="104"/>
       <c r="BQ36" s="104"/>
-      <c r="BR36" s="778"/>
-      <c r="BS36" s="778"/>
-      <c r="BT36" s="778"/>
-      <c r="BU36" s="778"/>
-      <c r="BV36" s="761"/>
-      <c r="BW36" s="761"/>
-      <c r="BX36" s="761"/>
-      <c r="BY36" s="761"/>
-      <c r="BZ36" s="761"/>
-      <c r="CA36" s="761"/>
-      <c r="CB36" s="761"/>
-      <c r="CC36" s="761"/>
-      <c r="CD36" s="761"/>
-      <c r="CE36" s="761"/>
-      <c r="CF36" s="761"/>
-      <c r="CG36" s="761"/>
+      <c r="BR36" s="772"/>
+      <c r="BS36" s="772"/>
+      <c r="BT36" s="772"/>
+      <c r="BU36" s="772"/>
+      <c r="BV36" s="755"/>
+      <c r="BW36" s="755"/>
+      <c r="BX36" s="755"/>
+      <c r="BY36" s="755"/>
+      <c r="BZ36" s="755"/>
+      <c r="CA36" s="755"/>
+      <c r="CB36" s="755"/>
+      <c r="CC36" s="755"/>
+      <c r="CD36" s="755"/>
+      <c r="CE36" s="755"/>
+      <c r="CF36" s="755"/>
+      <c r="CG36" s="755"/>
       <c r="CH36" s="598"/>
       <c r="CI36" s="598"/>
-      <c r="CJ36" s="778"/>
-      <c r="CK36" s="778"/>
-      <c r="CL36" s="778"/>
-      <c r="CM36" s="778"/>
+      <c r="CJ36" s="772"/>
+      <c r="CK36" s="772"/>
+      <c r="CL36" s="772"/>
+      <c r="CM36" s="772"/>
       <c r="CN36" s="104"/>
       <c r="CO36" s="104"/>
       <c r="CR36" s="668"/>
@@ -34930,30 +34606,30 @@
     </row>
     <row r="38" spans="2:124" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="726" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C38" s="727"/>
       <c r="D38" s="727"/>
       <c r="E38" s="696" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F38" s="696"/>
       <c r="G38" s="696" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H38" s="696"/>
       <c r="I38" s="698" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J38" s="698"/>
       <c r="K38" s="696" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L38" s="696"/>
       <c r="M38" s="569"/>
       <c r="N38" s="569"/>
       <c r="O38" s="700" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P38" s="700"/>
       <c r="Q38" s="569"/>
@@ -34973,38 +34649,38 @@
       </c>
       <c r="Z38" s="684"/>
       <c r="AA38" s="694" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB38" s="694"/>
       <c r="AC38" s="553"/>
       <c r="AD38" s="553"/>
-      <c r="AG38" s="801" t="s">
-        <v>273</v>
+      <c r="AG38" s="791" t="s">
+        <v>272</v>
       </c>
       <c r="AH38" s="746"/>
       <c r="AI38" s="746"/>
       <c r="AJ38" s="552" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AK38" s="552"/>
       <c r="AL38" s="552" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AM38" s="552"/>
       <c r="AN38" s="552" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AO38" s="552"/>
       <c r="AP38" s="552" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AQ38" s="552"/>
       <c r="AR38" s="552" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="AS38" s="552"/>
       <c r="AT38" s="676" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AU38" s="677"/>
       <c r="AV38" s="693"/>
@@ -35090,45 +34766,45 @@
       <c r="D40" s="708"/>
       <c r="E40" s="715"/>
       <c r="F40" s="716" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G40" s="717"/>
       <c r="H40" s="720" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I40" s="721"/>
       <c r="J40" s="720" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K40" s="721"/>
       <c r="L40" s="720" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M40" s="732"/>
       <c r="N40" s="734" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O40" s="735"/>
       <c r="P40" s="737" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q40" s="737"/>
       <c r="R40" s="606"/>
       <c r="S40" s="739"/>
       <c r="T40" s="740" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U40" s="741"/>
       <c r="V40" s="728" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W40" s="729"/>
       <c r="X40" s="728" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y40" s="729"/>
       <c r="Z40" s="728" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA40" s="749"/>
       <c r="AB40" s="751" t="s">
@@ -35141,39 +34817,39 @@
       <c r="AI40" s="555"/>
       <c r="AJ40" s="556"/>
       <c r="AK40" s="630" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AL40" s="291"/>
-      <c r="AM40" s="791" t="s">
-        <v>415</v>
-      </c>
-      <c r="AN40" s="792"/>
-      <c r="AO40" s="791" t="s">
-        <v>416</v>
-      </c>
-      <c r="AP40" s="792"/>
-      <c r="AQ40" s="791" t="s">
-        <v>417</v>
-      </c>
-      <c r="AR40" s="795"/>
+      <c r="AM40" s="785" t="s">
+        <v>408</v>
+      </c>
+      <c r="AN40" s="786"/>
+      <c r="AO40" s="785" t="s">
+        <v>409</v>
+      </c>
+      <c r="AP40" s="786"/>
+      <c r="AQ40" s="785" t="s">
+        <v>410</v>
+      </c>
+      <c r="AR40" s="789"/>
       <c r="AS40" s="568" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AT40" s="569"/>
       <c r="AU40" s="676" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AV40" s="677"/>
       <c r="AW40" s="693"/>
-      <c r="AX40" s="786"/>
-      <c r="AY40" s="787"/>
-      <c r="AZ40" s="788"/>
-      <c r="BA40" s="788"/>
-      <c r="BB40" s="788"/>
-      <c r="BC40" s="788"/>
-      <c r="BD40" s="788"/>
-      <c r="BE40" s="788"/>
-      <c r="BF40" s="809"/>
+      <c r="AX40" s="780"/>
+      <c r="AY40" s="781"/>
+      <c r="AZ40" s="782"/>
+      <c r="BA40" s="782"/>
+      <c r="BB40" s="782"/>
+      <c r="BC40" s="782"/>
+      <c r="BD40" s="782"/>
+      <c r="BE40" s="782"/>
+      <c r="BF40" s="797"/>
       <c r="BG40" s="625"/>
       <c r="BH40" s="625"/>
       <c r="BI40" s="626"/>
@@ -35215,26 +34891,26 @@
       <c r="AJ41" s="556"/>
       <c r="AK41" s="631"/>
       <c r="AL41" s="293"/>
-      <c r="AM41" s="793"/>
-      <c r="AN41" s="794"/>
-      <c r="AO41" s="793"/>
-      <c r="AP41" s="794"/>
-      <c r="AQ41" s="793"/>
-      <c r="AR41" s="796"/>
+      <c r="AM41" s="787"/>
+      <c r="AN41" s="788"/>
+      <c r="AO41" s="787"/>
+      <c r="AP41" s="788"/>
+      <c r="AQ41" s="787"/>
+      <c r="AR41" s="790"/>
       <c r="AS41" s="683"/>
       <c r="AT41" s="608"/>
       <c r="AU41" s="678"/>
       <c r="AV41" s="679"/>
       <c r="AW41" s="693"/>
-      <c r="AX41" s="786"/>
-      <c r="AY41" s="789"/>
-      <c r="AZ41" s="790"/>
-      <c r="BA41" s="790"/>
-      <c r="BB41" s="790"/>
-      <c r="BC41" s="790"/>
-      <c r="BD41" s="790"/>
-      <c r="BE41" s="790"/>
-      <c r="BF41" s="810"/>
+      <c r="AX41" s="780"/>
+      <c r="AY41" s="783"/>
+      <c r="AZ41" s="784"/>
+      <c r="BA41" s="784"/>
+      <c r="BB41" s="784"/>
+      <c r="BC41" s="784"/>
+      <c r="BD41" s="784"/>
+      <c r="BE41" s="784"/>
+      <c r="BF41" s="798"/>
       <c r="BG41" s="627"/>
       <c r="BH41" s="627"/>
       <c r="BI41" s="628"/>
@@ -35251,37 +34927,37 @@
       </c>
       <c r="H42" s="710"/>
       <c r="I42" s="686" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J42" s="686"/>
       <c r="K42" s="686" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L42" s="686"/>
       <c r="M42" s="686" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="N42" s="684"/>
       <c r="O42" s="684" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="P42" s="684"/>
       <c r="Q42" s="682"/>
       <c r="R42" s="553"/>
       <c r="S42" s="687" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="T42" s="713"/>
       <c r="U42" s="714" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V42" s="714"/>
       <c r="W42" s="714" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="X42" s="714"/>
       <c r="Y42" s="748" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z42" s="748"/>
       <c r="AA42" s="708"/>
@@ -35294,39 +34970,39 @@
       <c r="AJ42" s="555"/>
       <c r="AK42" s="708"/>
       <c r="AL42" s="676" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="AM42" s="677"/>
       <c r="AN42" s="680" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="AO42" s="681"/>
       <c r="AP42" s="682" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="AQ42" s="553"/>
       <c r="AR42" s="568" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AS42" s="569"/>
       <c r="AT42" s="568" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AU42" s="569"/>
       <c r="AV42" s="676"/>
       <c r="AW42" s="677"/>
       <c r="AX42" s="693"/>
-      <c r="AY42" s="759"/>
-      <c r="AZ42" s="759"/>
-      <c r="BA42" s="759"/>
-      <c r="BB42" s="759"/>
-      <c r="BC42" s="759"/>
-      <c r="BD42" s="759"/>
-      <c r="BE42" s="759"/>
-      <c r="BF42" s="804"/>
-      <c r="BG42" s="805"/>
-      <c r="BH42" s="805"/>
-      <c r="BI42" s="806"/>
+      <c r="AY42" s="753"/>
+      <c r="AZ42" s="753"/>
+      <c r="BA42" s="753"/>
+      <c r="BB42" s="753"/>
+      <c r="BC42" s="753"/>
+      <c r="BD42" s="753"/>
+      <c r="BE42" s="753"/>
+      <c r="BF42" s="792"/>
+      <c r="BG42" s="793"/>
+      <c r="BH42" s="793"/>
+      <c r="BI42" s="794"/>
       <c r="BK42" s="133"/>
     </row>
     <row r="43" spans="2:124" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -35385,9 +35061,9 @@
       <c r="BD43" s="693"/>
       <c r="BE43" s="693"/>
       <c r="BF43" s="715"/>
-      <c r="BG43" s="807"/>
-      <c r="BH43" s="807"/>
-      <c r="BI43" s="808"/>
+      <c r="BG43" s="795"/>
+      <c r="BH43" s="795"/>
+      <c r="BI43" s="796"/>
       <c r="BK43" s="133"/>
     </row>
     <row r="44" spans="2:124" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -35411,7 +35087,7 @@
       <c r="S44" s="629"/>
       <c r="T44" s="629"/>
       <c r="U44" s="726" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="V44" s="727"/>
       <c r="W44" s="692"/>
@@ -35432,7 +35108,7 @@
       <c r="AN44" s="555"/>
       <c r="AO44" s="555"/>
       <c r="AP44" s="746" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ44" s="746"/>
       <c r="AR44" s="746"/>
@@ -35518,22 +35194,22 @@
     </row>
     <row r="46" spans="2:124" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="132" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AG46" s="131" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BK46" s="133"/>
     </row>
     <row r="47" spans="2:124" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="131" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="BK47" s="133"/>
     </row>
     <row r="48" spans="2:124" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="131" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="BK48" s="133"/>
     </row>
@@ -35550,65 +35226,50 @@
       <c r="BK52" s="133"/>
     </row>
   </sheetData>
-  <mergeCells count="583">
-    <mergeCell ref="CI10:CJ10"/>
-    <mergeCell ref="CK10:CL10"/>
-    <mergeCell ref="CL11:CM11"/>
-    <mergeCell ref="CN11:CO11"/>
-    <mergeCell ref="CB12:CC12"/>
-    <mergeCell ref="CD12:CE12"/>
-    <mergeCell ref="CF12:CG12"/>
-    <mergeCell ref="CH12:CI12"/>
-    <mergeCell ref="CJ12:CK12"/>
-    <mergeCell ref="CL12:CM12"/>
-    <mergeCell ref="CN12:CO12"/>
+  <mergeCells count="557">
+    <mergeCell ref="CL11:CM12"/>
+    <mergeCell ref="CN11:CO12"/>
+    <mergeCell ref="CA13:CB14"/>
+    <mergeCell ref="CC13:CD14"/>
+    <mergeCell ref="CE13:CF14"/>
+    <mergeCell ref="CG13:CH14"/>
+    <mergeCell ref="CI13:CJ14"/>
+    <mergeCell ref="CK13:CL14"/>
+    <mergeCell ref="CB15:CC16"/>
+    <mergeCell ref="CD15:CE16"/>
+    <mergeCell ref="CF15:CG16"/>
+    <mergeCell ref="CH15:CI16"/>
+    <mergeCell ref="CJ15:CK16"/>
     <mergeCell ref="CM9:CO10"/>
-    <mergeCell ref="CG9:CH9"/>
-    <mergeCell ref="CI9:CJ9"/>
-    <mergeCell ref="CK9:CL9"/>
-    <mergeCell ref="CG10:CH10"/>
+    <mergeCell ref="CA9:CB10"/>
+    <mergeCell ref="CC9:CD10"/>
+    <mergeCell ref="CE9:CF10"/>
+    <mergeCell ref="CG9:CH10"/>
+    <mergeCell ref="CI9:CJ10"/>
+    <mergeCell ref="CK9:CL10"/>
+    <mergeCell ref="BZ11:CA12"/>
+    <mergeCell ref="CB11:CC12"/>
     <mergeCell ref="CH17:CI18"/>
     <mergeCell ref="CJ17:CM18"/>
     <mergeCell ref="BQ13:BR14"/>
     <mergeCell ref="BS13:BT14"/>
     <mergeCell ref="BU13:BV14"/>
     <mergeCell ref="BY13:BZ14"/>
-    <mergeCell ref="CC13:CD13"/>
-    <mergeCell ref="CE13:CF13"/>
-    <mergeCell ref="CG13:CH13"/>
-    <mergeCell ref="CI13:CJ13"/>
-    <mergeCell ref="CK13:CL13"/>
-    <mergeCell ref="CC14:CD14"/>
-    <mergeCell ref="CE14:CF14"/>
-    <mergeCell ref="CG14:CH14"/>
-    <mergeCell ref="CI14:CJ14"/>
-    <mergeCell ref="CK14:CL14"/>
     <mergeCell ref="BR15:BS16"/>
     <mergeCell ref="BT15:BU16"/>
     <mergeCell ref="CL15:CO16"/>
     <mergeCell ref="CM13:CO14"/>
     <mergeCell ref="BW13:BX14"/>
-    <mergeCell ref="CH15:CI15"/>
-    <mergeCell ref="CJ15:CK15"/>
-    <mergeCell ref="CB16:CC16"/>
-    <mergeCell ref="CD16:CE16"/>
-    <mergeCell ref="CF16:CG16"/>
-    <mergeCell ref="CH16:CI16"/>
-    <mergeCell ref="CJ16:CK16"/>
-    <mergeCell ref="CB11:CC11"/>
-    <mergeCell ref="CD11:CE11"/>
-    <mergeCell ref="CF11:CG11"/>
-    <mergeCell ref="CH11:CI11"/>
-    <mergeCell ref="CJ11:CK11"/>
-    <mergeCell ref="CA14:CB14"/>
-    <mergeCell ref="BZ12:CA12"/>
+    <mergeCell ref="CD11:CE12"/>
+    <mergeCell ref="CF11:CG12"/>
+    <mergeCell ref="CH11:CI12"/>
+    <mergeCell ref="CJ11:CK12"/>
     <mergeCell ref="CL6:CM7"/>
     <mergeCell ref="CN6:CO7"/>
     <mergeCell ref="BM6:BN7"/>
     <mergeCell ref="BB42:BC43"/>
     <mergeCell ref="BD42:BE43"/>
     <mergeCell ref="BF42:BI43"/>
-    <mergeCell ref="BY9:BZ9"/>
     <mergeCell ref="BP6:BQ7"/>
     <mergeCell ref="BR6:BS7"/>
     <mergeCell ref="BT6:BU7"/>
@@ -35616,13 +35277,11 @@
     <mergeCell ref="BY6:BZ7"/>
     <mergeCell ref="CA6:CB7"/>
     <mergeCell ref="CC6:CD7"/>
-    <mergeCell ref="BY10:BZ10"/>
     <mergeCell ref="CE6:CF7"/>
     <mergeCell ref="CH6:CI7"/>
     <mergeCell ref="CJ6:CK7"/>
     <mergeCell ref="BO9:BP10"/>
     <mergeCell ref="BM13:BP14"/>
-    <mergeCell ref="CA13:CB13"/>
     <mergeCell ref="BQ9:BR10"/>
     <mergeCell ref="BS9:BT10"/>
     <mergeCell ref="BU9:BV10"/>
@@ -35650,7 +35309,6 @@
     <mergeCell ref="BM11:BO12"/>
     <mergeCell ref="BM15:BQ16"/>
     <mergeCell ref="AG38:AI39"/>
-    <mergeCell ref="BZ11:CA11"/>
     <mergeCell ref="BP11:BQ12"/>
     <mergeCell ref="BV11:BW12"/>
     <mergeCell ref="BC13:BD14"/>
@@ -35671,16 +35329,8 @@
     <mergeCell ref="AQ40:AR41"/>
     <mergeCell ref="AS40:AT41"/>
     <mergeCell ref="BW9:BX10"/>
-    <mergeCell ref="CA9:CB9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="CE9:CF9"/>
-    <mergeCell ref="CA10:CB10"/>
-    <mergeCell ref="CC10:CD10"/>
-    <mergeCell ref="CE10:CF10"/>
-    <mergeCell ref="CB15:CC15"/>
-    <mergeCell ref="CD15:CE15"/>
-    <mergeCell ref="CF15:CG15"/>
     <mergeCell ref="CF17:CG18"/>
+    <mergeCell ref="BY9:BZ10"/>
     <mergeCell ref="BV34:BW34"/>
     <mergeCell ref="CJ33:CK34"/>
     <mergeCell ref="BR33:BS34"/>
@@ -36154,65 +35804,65 @@
     <row r="1" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="134" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="134" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="850" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" s="850"/>
-      <c r="D5" s="850"/>
-      <c r="E5" s="850"/>
-      <c r="F5" s="850"/>
-      <c r="G5" s="850"/>
-      <c r="H5" s="850"/>
-      <c r="I5" s="850"/>
-      <c r="J5" s="850"/>
-      <c r="K5" s="850"/>
-      <c r="L5" s="850"/>
-      <c r="M5" s="850"/>
-      <c r="N5" s="850"/>
-      <c r="O5" s="850"/>
-      <c r="Q5" s="850" t="s">
-        <v>337</v>
-      </c>
-      <c r="R5" s="850"/>
-      <c r="S5" s="850"/>
-      <c r="T5" s="850"/>
+      <c r="B5" s="804" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="804"/>
+      <c r="D5" s="804"/>
+      <c r="E5" s="804"/>
+      <c r="F5" s="804"/>
+      <c r="G5" s="804"/>
+      <c r="H5" s="804"/>
+      <c r="I5" s="804"/>
+      <c r="J5" s="804"/>
+      <c r="K5" s="804"/>
+      <c r="L5" s="804"/>
+      <c r="M5" s="804"/>
+      <c r="N5" s="804"/>
+      <c r="O5" s="804"/>
+      <c r="Q5" s="804" t="s">
+        <v>335</v>
+      </c>
+      <c r="R5" s="804"/>
+      <c r="S5" s="804"/>
+      <c r="T5" s="804"/>
     </row>
     <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:20" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="851" t="s">
-        <v>281</v>
-      </c>
-      <c r="C7" s="851"/>
-      <c r="D7" s="851"/>
-      <c r="E7" s="851"/>
-      <c r="G7" s="851" t="s">
-        <v>298</v>
-      </c>
-      <c r="H7" s="851"/>
-      <c r="I7" s="851"/>
-      <c r="J7" s="851"/>
-      <c r="L7" s="851" t="s">
-        <v>299</v>
-      </c>
-      <c r="M7" s="851"/>
-      <c r="N7" s="851"/>
-      <c r="O7" s="851"/>
-      <c r="Q7" s="851" t="s">
-        <v>282</v>
-      </c>
-      <c r="R7" s="851"/>
-      <c r="S7" s="851"/>
-      <c r="T7" s="851"/>
+      <c r="B7" s="805" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="805"/>
+      <c r="D7" s="805"/>
+      <c r="E7" s="805"/>
+      <c r="G7" s="805" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" s="805"/>
+      <c r="I7" s="805"/>
+      <c r="J7" s="805"/>
+      <c r="L7" s="805" t="s">
+        <v>297</v>
+      </c>
+      <c r="M7" s="805"/>
+      <c r="N7" s="805"/>
+      <c r="O7" s="805"/>
+      <c r="Q7" s="805" t="s">
+        <v>280</v>
+      </c>
+      <c r="R7" s="805"/>
+      <c r="S7" s="805"/>
+      <c r="T7" s="805"/>
     </row>
     <row r="8" spans="2:20" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="111" t="s">
@@ -36240,203 +35890,203 @@
         <v>110</v>
       </c>
       <c r="L8" s="118" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M8" s="127" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N8" s="127" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O8" s="113" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="118"/>
       <c r="R8" s="113" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S8" s="118"/>
       <c r="T8" s="112"/>
     </row>
     <row r="9" spans="2:20" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="114" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C9" s="115" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D9" s="115" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="115" t="s">
         <v>312</v>
       </c>
-      <c r="E9" s="115" t="s">
-        <v>314</v>
-      </c>
       <c r="G9" s="121" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H9" s="115" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I9" s="115" t="s">
+        <v>310</v>
+      </c>
+      <c r="J9" s="115" t="s">
         <v>312</v>
       </c>
-      <c r="J9" s="115" t="s">
-        <v>314</v>
-      </c>
       <c r="L9" s="126" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M9" s="124" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N9" s="124" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O9" s="124" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q9" s="116" t="s">
         <v>95</v>
       </c>
       <c r="R9" s="115" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S9" s="115" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="T9" s="115" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="119" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="119" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="119" t="s">
-        <v>325</v>
-      </c>
-      <c r="D10" s="119" t="s">
-        <v>326</v>
-      </c>
-      <c r="E10" s="849" t="s">
-        <v>315</v>
+      <c r="E10" s="803" t="s">
+        <v>313</v>
       </c>
       <c r="G10" s="117" t="s">
+        <v>299</v>
+      </c>
+      <c r="H10" s="117" t="s">
+        <v>300</v>
+      </c>
+      <c r="I10" s="117" t="s">
         <v>301</v>
       </c>
-      <c r="H10" s="117" t="s">
-        <v>302</v>
-      </c>
-      <c r="I10" s="117" t="s">
-        <v>303</v>
-      </c>
-      <c r="J10" s="849" t="s">
-        <v>315</v>
+      <c r="J10" s="803" t="s">
+        <v>313</v>
       </c>
       <c r="L10" s="119"/>
       <c r="M10" s="119"/>
       <c r="N10" s="119"/>
-      <c r="O10" s="849" t="s">
-        <v>287</v>
+      <c r="O10" s="803" t="s">
+        <v>285</v>
       </c>
       <c r="Q10" s="119"/>
       <c r="R10" s="119"/>
       <c r="S10" s="119"/>
-      <c r="T10" s="849"/>
+      <c r="T10" s="803"/>
     </row>
     <row r="11" spans="2:20" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="117" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="117" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="117" t="s">
         <v>321</v>
       </c>
-      <c r="C11" s="117" t="s">
-        <v>322</v>
-      </c>
-      <c r="D11" s="117" t="s">
-        <v>323</v>
-      </c>
-      <c r="E11" s="849"/>
+      <c r="E11" s="803"/>
       <c r="G11" s="117" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H11" s="117" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I11" s="117" t="s">
-        <v>304</v>
-      </c>
-      <c r="J11" s="849"/>
+        <v>302</v>
+      </c>
+      <c r="J11" s="803"/>
       <c r="L11" s="119"/>
       <c r="M11" s="123" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N11" s="119"/>
-      <c r="O11" s="849"/>
+      <c r="O11" s="803"/>
       <c r="Q11" s="119"/>
       <c r="R11" s="119"/>
       <c r="S11" s="119"/>
-      <c r="T11" s="849"/>
+      <c r="T11" s="803"/>
     </row>
     <row r="12" spans="2:20" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="117" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="117" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="117" t="s">
         <v>318</v>
       </c>
-      <c r="C12" s="117" t="s">
-        <v>319</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>320</v>
-      </c>
-      <c r="E12" s="849" t="s">
-        <v>311</v>
+      <c r="E12" s="803" t="s">
+        <v>309</v>
       </c>
       <c r="G12" s="117" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H12" s="117" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I12" s="117" t="s">
-        <v>305</v>
-      </c>
-      <c r="J12" s="849" t="s">
-        <v>311</v>
+        <v>303</v>
+      </c>
+      <c r="J12" s="803" t="s">
+        <v>309</v>
       </c>
       <c r="L12" s="119"/>
       <c r="M12" s="119"/>
       <c r="N12" s="119"/>
-      <c r="O12" s="849" t="s">
-        <v>288</v>
+      <c r="O12" s="803" t="s">
+        <v>286</v>
       </c>
       <c r="Q12" s="119"/>
       <c r="R12" s="119"/>
       <c r="S12" s="119"/>
-      <c r="T12" s="849"/>
+      <c r="T12" s="803"/>
     </row>
     <row r="13" spans="2:20" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="848" t="s">
-        <v>316</v>
-      </c>
-      <c r="C13" s="848"/>
+      <c r="B13" s="802" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="802"/>
       <c r="D13" s="115" t="s">
-        <v>317</v>
-      </c>
-      <c r="E13" s="849"/>
-      <c r="G13" s="848" t="s">
-        <v>309</v>
-      </c>
-      <c r="H13" s="848"/>
+        <v>315</v>
+      </c>
+      <c r="E13" s="803"/>
+      <c r="G13" s="802" t="s">
+        <v>307</v>
+      </c>
+      <c r="H13" s="802"/>
       <c r="I13" s="115" t="s">
-        <v>310</v>
-      </c>
-      <c r="J13" s="849"/>
-      <c r="L13" s="848"/>
-      <c r="M13" s="848"/>
+        <v>308</v>
+      </c>
+      <c r="J13" s="803"/>
+      <c r="L13" s="802"/>
+      <c r="M13" s="802"/>
       <c r="N13" s="115"/>
-      <c r="O13" s="849"/>
-      <c r="Q13" s="848"/>
-      <c r="R13" s="848"/>
+      <c r="O13" s="803"/>
+      <c r="Q13" s="802"/>
+      <c r="R13" s="802"/>
       <c r="S13" s="115"/>
-      <c r="T13" s="849"/>
+      <c r="T13" s="803"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -36459,7 +36109,7 @@
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="O10:O11"/>
   </mergeCells>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36478,118 +36128,118 @@
     <row r="1" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="134" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="134" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="852" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" s="852"/>
-      <c r="D5" s="852"/>
-      <c r="E5" s="852"/>
-      <c r="G5" s="852" t="s">
-        <v>344</v>
-      </c>
-      <c r="H5" s="852"/>
-      <c r="I5" s="852"/>
-      <c r="J5" s="852"/>
-      <c r="K5" s="852"/>
-      <c r="L5" s="852"/>
-      <c r="M5" s="852"/>
-      <c r="N5" s="852"/>
-      <c r="O5" s="852"/>
+      <c r="B5" s="806" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="806"/>
+      <c r="D5" s="806"/>
+      <c r="E5" s="806"/>
+      <c r="G5" s="806" t="s">
+        <v>342</v>
+      </c>
+      <c r="H5" s="806"/>
+      <c r="I5" s="806"/>
+      <c r="J5" s="806"/>
+      <c r="K5" s="806"/>
+      <c r="L5" s="806"/>
+      <c r="M5" s="806"/>
+      <c r="N5" s="806"/>
+      <c r="O5" s="806"/>
     </row>
     <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="120" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="849" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="803" t="s">
         <v>215</v>
       </c>
       <c r="D7" s="115" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="803" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="H7" s="803" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="115" t="s">
+        <v>288</v>
+      </c>
+      <c r="J7" s="803" t="s">
+        <v>216</v>
+      </c>
+      <c r="L7" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="M7" s="803"/>
+      <c r="N7" s="115" t="s">
         <v>290</v>
       </c>
-      <c r="E7" s="849" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="120" t="s">
-        <v>289</v>
-      </c>
-      <c r="H7" s="849" t="s">
-        <v>215</v>
-      </c>
-      <c r="I7" s="115" t="s">
-        <v>290</v>
-      </c>
-      <c r="J7" s="849" t="s">
-        <v>216</v>
-      </c>
-      <c r="L7" s="120" t="s">
-        <v>289</v>
-      </c>
-      <c r="M7" s="849"/>
-      <c r="N7" s="115" t="s">
-        <v>292</v>
-      </c>
-      <c r="O7" s="849"/>
+      <c r="O7" s="803"/>
     </row>
     <row r="8" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="112" t="s">
-        <v>293</v>
-      </c>
-      <c r="C8" s="849"/>
+        <v>291</v>
+      </c>
+      <c r="C8" s="803"/>
       <c r="D8" s="118" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="849"/>
+      <c r="E8" s="803"/>
       <c r="G8" s="128" t="s">
-        <v>340</v>
-      </c>
-      <c r="H8" s="849"/>
+        <v>338</v>
+      </c>
+      <c r="H8" s="803"/>
       <c r="I8" s="118" t="s">
         <v>217</v>
       </c>
-      <c r="J8" s="849"/>
+      <c r="J8" s="803"/>
       <c r="L8" s="113" t="s">
-        <v>283</v>
-      </c>
-      <c r="M8" s="849"/>
+        <v>281</v>
+      </c>
+      <c r="M8" s="803"/>
       <c r="N8" s="118" t="s">
-        <v>342</v>
-      </c>
-      <c r="O8" s="849"/>
+        <v>340</v>
+      </c>
+      <c r="O8" s="803"/>
     </row>
     <row r="9" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="112" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="849"/>
+        <v>292</v>
+      </c>
+      <c r="C9" s="803"/>
       <c r="D9" s="115" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" s="803"/>
+      <c r="G9" s="129" t="s">
+        <v>339</v>
+      </c>
+      <c r="H9" s="803"/>
+      <c r="I9" s="115" t="s">
+        <v>293</v>
+      </c>
+      <c r="J9" s="803"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="803"/>
+      <c r="N9" s="115" t="s">
         <v>295</v>
       </c>
-      <c r="E9" s="849"/>
-      <c r="G9" s="129" t="s">
-        <v>341</v>
-      </c>
-      <c r="H9" s="849"/>
-      <c r="I9" s="115" t="s">
-        <v>295</v>
-      </c>
-      <c r="J9" s="849"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="849"/>
-      <c r="N9" s="115" t="s">
-        <v>297</v>
-      </c>
-      <c r="O9" s="849"/>
+      <c r="O9" s="803"/>
     </row>
     <row r="11" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G11" s="130"/>
@@ -36597,13 +36247,13 @@
       <c r="I11" s="130"/>
       <c r="J11" s="130"/>
       <c r="L11" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="M11" s="803"/>
+      <c r="N11" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="M11" s="849"/>
-      <c r="N11" s="115" t="s">
-        <v>291</v>
-      </c>
-      <c r="O11" s="849"/>
+      <c r="O11" s="803"/>
     </row>
     <row r="12" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G12" s="130"/>
@@ -36611,9 +36261,9 @@
       <c r="I12" s="130"/>
       <c r="J12" s="130"/>
       <c r="L12" s="112"/>
-      <c r="M12" s="849"/>
+      <c r="M12" s="803"/>
       <c r="N12" s="118"/>
-      <c r="O12" s="849"/>
+      <c r="O12" s="803"/>
     </row>
     <row r="13" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G13" s="130"/>
@@ -36621,13 +36271,13 @@
       <c r="I13" s="130"/>
       <c r="J13" s="130"/>
       <c r="L13" s="113" t="s">
-        <v>283</v>
-      </c>
-      <c r="M13" s="849"/>
+        <v>281</v>
+      </c>
+      <c r="M13" s="803"/>
       <c r="N13" s="115" t="s">
-        <v>296</v>
-      </c>
-      <c r="O13" s="849"/>
+        <v>294</v>
+      </c>
+      <c r="O13" s="803"/>
     </row>
   </sheetData>
   <mergeCells count="10">
